--- a/s60_signal/position-6881-6886-800.xlsx
+++ b/s60_signal/position-6881-6886-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5983" uniqueCount="801">
   <si>
     <t>trade_time</t>
   </si>
@@ -1111,9 +1111,6 @@
     <t>2021-06-28</t>
   </si>
   <si>
-    <t>2021-07-07</t>
-  </si>
-  <si>
     <t>2021-06-07</t>
   </si>
   <si>
@@ -1135,10 +1132,13 @@
     <t>2021-07-06</t>
   </si>
   <si>
-    <t>2021-06-11</t>
+    <t>2021-06-17</t>
   </si>
   <si>
-    <t>2021-06-17</t>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
   </si>
   <si>
     <t>2021-07-12</t>
@@ -1861,7 +1861,7 @@
     <t>2021-06-16</t>
   </si>
   <si>
-    <t>2021-07-08</t>
+    <t>2021-07-07</t>
   </si>
   <si>
     <t>2015-12-03</t>
@@ -2413,10 +2413,10 @@
     <t>2021-06-10</t>
   </si>
   <si>
-    <t>2021-06-30</t>
+    <t>2021-06-11</t>
   </si>
   <si>
-    <t>2021-07-02</t>
+    <t>2021-06-30</t>
   </si>
 </sst>
 </file>
@@ -2774,7 +2774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2010"/>
+  <dimension ref="A1:P2009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96654,7 +96654,7 @@
         <v>5.218027229384798</v>
       </c>
       <c r="D1901" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1901">
         <v>4.925638640730162</v>
@@ -97054,7 +97054,7 @@
         <v>4.781161008967361</v>
       </c>
       <c r="D1909" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1909">
         <v>4.50214587603979</v>
@@ -97554,7 +97554,7 @@
         <v>4.303088561031202</v>
       </c>
       <c r="D1919" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1919">
         <v>4.038708298958818</v>
@@ -98083,7 +98083,7 @@
         <v>3.737983589108724</v>
       </c>
       <c r="D1930" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E1930">
         <v>3.490902458829886</v>
@@ -98383,7 +98383,7 @@
         <v>-0.09231956901794369</v>
       </c>
       <c r="D1936" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1936">
         <v>-0.4013955609607844</v>
@@ -98433,7 +98433,7 @@
         <v>-0.08324357707510188</v>
       </c>
       <c r="D1937" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1937">
         <v>-0.4013955609607844</v>
@@ -98633,7 +98633,7 @@
         <v>-0.3629286443017499</v>
       </c>
       <c r="D1941" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1941">
         <v>-0.6660961411510584</v>
@@ -98683,7 +98683,7 @@
         <v>-0.359761147452442</v>
       </c>
       <c r="D1942" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1942">
         <v>-0.6660961411510584</v>
@@ -98883,7 +98883,7 @@
         <v>-0.7298147783128837</v>
       </c>
       <c r="D1946" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1946">
         <v>-1.024971660882473</v>
@@ -98933,7 +98933,7 @@
         <v>-0.734657895743295</v>
       </c>
       <c r="D1947" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E1947">
         <v>-1.024971660882473</v>
@@ -99074,96 +99074,96 @@
     </row>
     <row r="1950" spans="1:16">
       <c r="A1950" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1950" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C1950">
-        <v>-1.941250667304828</v>
+        <v>-3.012111487684564</v>
       </c>
       <c r="D1950" t="s">
-        <v>372</v>
+        <v>612</v>
       </c>
       <c r="E1950">
-        <v>-2.267193638053868</v>
+        <v>-2.591638008290889</v>
       </c>
       <c r="F1950">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1950">
-        <v>0.02474125066730483</v>
+        <v>0.02505211148768456</v>
       </c>
       <c r="H1950">
-        <v>0.02394719363805387</v>
+        <v>0.02487163800829089</v>
       </c>
       <c r="I1950">
-        <v>0.3259429707490398</v>
+        <v>0.4204734793936744</v>
       </c>
       <c r="J1950">
-        <v>2.925712865637024</v>
+        <v>3.004734793936737</v>
       </c>
       <c r="K1950">
-        <v>4.56</v>
+        <v>4.67</v>
       </c>
       <c r="L1950">
-        <v>11.4</v>
+        <v>11.02</v>
       </c>
       <c r="M1950">
-        <v>4.48</v>
+        <v>4.57</v>
       </c>
       <c r="N1950">
-        <v>10.84</v>
+        <v>11.14</v>
       </c>
       <c r="O1950">
         <v>1</v>
       </c>
       <c r="P1950" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="1951" spans="1:16">
       <c r="A1951" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1951" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C1951">
-        <v>-3.012111487684564</v>
+        <v>-3.062727010896339</v>
       </c>
       <c r="D1951" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E1951">
-        <v>-2.591638008290889</v>
+        <v>-2.401590660351523</v>
       </c>
       <c r="F1951">
         <v>1</v>
       </c>
       <c r="G1951">
-        <v>0.02505211148768456</v>
+        <v>0.02578272701089634</v>
       </c>
       <c r="H1951">
-        <v>0.02487163800829089</v>
+        <v>0.02500159066035152</v>
       </c>
       <c r="I1951">
-        <v>0.4204734793936744</v>
+        <v>0.6611363505448153</v>
       </c>
       <c r="J1951">
         <v>3.004734793936737</v>
       </c>
       <c r="K1951">
-        <v>4.67</v>
+        <v>4.8</v>
       </c>
       <c r="L1951">
-        <v>11.02</v>
+        <v>11.36</v>
       </c>
       <c r="M1951">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="N1951">
-        <v>11.14</v>
+        <v>11.3</v>
       </c>
       <c r="O1951">
         <v>1</v>
@@ -99174,96 +99174,96 @@
     </row>
     <row r="1952" spans="1:16">
       <c r="A1952" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1952" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C1952">
-        <v>-3.062727010896339</v>
+        <v>-3.31690489875729</v>
       </c>
       <c r="D1952" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1952">
-        <v>-2.613058446471911</v>
+        <v>-2.889904793858847</v>
       </c>
       <c r="F1952">
         <v>1</v>
       </c>
       <c r="G1952">
-        <v>0.02578272701089634</v>
+        <v>0.02535690489875729</v>
       </c>
       <c r="H1952">
-        <v>0.02665305844647191</v>
+        <v>0.02516990479385885</v>
       </c>
       <c r="I1952">
-        <v>0.449668564424428</v>
+        <v>0.4270001048984433</v>
       </c>
       <c r="J1952">
-        <v>3.004734793936737</v>
+        <v>3.07000104898443</v>
       </c>
       <c r="K1952">
-        <v>4.8</v>
+        <v>4.67</v>
       </c>
       <c r="L1952">
-        <v>11.36</v>
+        <v>11.02</v>
       </c>
       <c r="M1952">
-        <v>4.87</v>
+        <v>4.57</v>
       </c>
       <c r="N1952">
-        <v>12.02</v>
+        <v>11.14</v>
       </c>
       <c r="O1952">
         <v>1</v>
       </c>
       <c r="P1952" t="s">
-        <v>791</v>
+        <v>353</v>
       </c>
     </row>
     <row r="1953" spans="1:16">
       <c r="A1953" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1953" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C1953">
-        <v>-3.31690489875729</v>
+        <v>-3.376005035125266</v>
       </c>
       <c r="D1953" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E1953">
-        <v>-2.889904793858847</v>
+        <v>-2.699204783369003</v>
       </c>
       <c r="F1953">
         <v>1</v>
       </c>
       <c r="G1953">
-        <v>0.02535690489875729</v>
+        <v>0.02609600503512527</v>
       </c>
       <c r="H1953">
-        <v>0.02516990479385885</v>
+        <v>0.02529920478336901</v>
       </c>
       <c r="I1953">
-        <v>0.4270001048984433</v>
+        <v>0.6768002517562621</v>
       </c>
       <c r="J1953">
         <v>3.07000104898443</v>
       </c>
       <c r="K1953">
-        <v>4.67</v>
+        <v>4.8</v>
       </c>
       <c r="L1953">
-        <v>11.02</v>
+        <v>11.36</v>
       </c>
       <c r="M1953">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="N1953">
-        <v>11.14</v>
+        <v>11.3</v>
       </c>
       <c r="O1953">
         <v>1</v>
@@ -99274,34 +99274,34 @@
     </row>
     <row r="1954" spans="1:16">
       <c r="A1954" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1954" t="s">
         <v>356</v>
       </c>
       <c r="C1954">
-        <v>-3.376005035125266</v>
+        <v>-3.528481251686005</v>
       </c>
       <c r="D1954" t="s">
         <v>614</v>
       </c>
       <c r="E1954">
-        <v>-2.699204783369003</v>
+        <v>-2.844057189101704</v>
       </c>
       <c r="F1954">
         <v>1</v>
       </c>
       <c r="G1954">
-        <v>0.02609600503512527</v>
+        <v>0.026248481251686</v>
       </c>
       <c r="H1954">
-        <v>0.02529920478336901</v>
+        <v>0.02544405718910171</v>
       </c>
       <c r="I1954">
-        <v>0.6768002517562621</v>
+        <v>0.6844240625843003</v>
       </c>
       <c r="J1954">
-        <v>3.07000104898443</v>
+        <v>3.101766927434584</v>
       </c>
       <c r="K1954">
         <v>4.8</v>
@@ -99319,57 +99319,57 @@
         <v>1</v>
       </c>
       <c r="P1954" t="s">
-        <v>353</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1955" spans="1:16">
       <c r="A1955" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1955" t="s">
         <v>365</v>
       </c>
       <c r="C1955">
-        <v>-2.116804447693985</v>
+        <v>-3.355428243862965</v>
       </c>
       <c r="D1955" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E1955">
-        <v>-2.020504353285386</v>
+        <v>-2.844057189101704</v>
       </c>
       <c r="F1955">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1955">
-        <v>0.02391680444769399</v>
+        <v>0.02623542824386296</v>
       </c>
       <c r="H1955">
-        <v>0.02346050435328539</v>
+        <v>0.02544405718910171</v>
       </c>
       <c r="I1955">
-        <v>-0.09630009440859943</v>
+        <v>0.5113710547612609</v>
       </c>
       <c r="J1955">
-        <v>3.07000104898443</v>
+        <v>3.101766927434584</v>
       </c>
       <c r="K1955">
-        <v>4.24</v>
+        <v>4.77</v>
       </c>
       <c r="L1955">
-        <v>10.9</v>
+        <v>11.44</v>
       </c>
       <c r="M1955">
-        <v>4.15</v>
+        <v>4.56</v>
       </c>
       <c r="N1955">
-        <v>10.72</v>
+        <v>11.3</v>
       </c>
       <c r="O1955">
         <v>1</v>
       </c>
       <c r="P1955" t="s">
-        <v>353</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1956" spans="1:16">
@@ -99380,28 +99380,28 @@
         <v>356</v>
       </c>
       <c r="C1956">
-        <v>-3.528481251686005</v>
+        <v>-3.390125580009366</v>
       </c>
       <c r="D1956" t="s">
         <v>614</v>
       </c>
       <c r="E1956">
-        <v>-2.844057189101704</v>
+        <v>-2.7126193010089</v>
       </c>
       <c r="F1956">
         <v>1</v>
       </c>
       <c r="G1956">
-        <v>0.026248481251686</v>
+        <v>0.02611012558000937</v>
       </c>
       <c r="H1956">
-        <v>0.02544405718910171</v>
+        <v>0.0253126193010089</v>
       </c>
       <c r="I1956">
-        <v>0.6844240625843003</v>
+        <v>0.6775062790004664</v>
       </c>
       <c r="J1956">
-        <v>3.101766927434584</v>
+        <v>3.072942829168618</v>
       </c>
       <c r="K1956">
         <v>4.8</v>
@@ -99419,7 +99419,7 @@
         <v>1</v>
       </c>
       <c r="P1956" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1957" spans="1:16">
@@ -99430,34 +99430,34 @@
         <v>366</v>
       </c>
       <c r="C1957">
-        <v>-3.355428243862965</v>
+        <v>-3.179396151717681</v>
       </c>
       <c r="D1957" t="s">
         <v>614</v>
       </c>
       <c r="E1957">
-        <v>-2.844057189101704</v>
+        <v>-2.7126193010089</v>
       </c>
       <c r="F1957">
         <v>1</v>
       </c>
       <c r="G1957">
-        <v>0.02623542824386296</v>
+        <v>0.02625939615171768</v>
       </c>
       <c r="H1957">
-        <v>0.02544405718910171</v>
+        <v>0.0253126193010089</v>
       </c>
       <c r="I1957">
-        <v>0.5113710547612609</v>
+        <v>0.4667768507087811</v>
       </c>
       <c r="J1957">
-        <v>3.101766927434584</v>
+        <v>3.072942829168618</v>
       </c>
       <c r="K1957">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="L1957">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="M1957">
         <v>4.56</v>
@@ -99469,7 +99469,7 @@
         <v>1</v>
       </c>
       <c r="P1957" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1958" spans="1:16">
@@ -99477,37 +99477,37 @@
         <v>0</v>
       </c>
       <c r="B1958" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C1958">
-        <v>-3.390125580009366</v>
+        <v>-3.123276129317992</v>
       </c>
       <c r="D1958" t="s">
         <v>614</v>
       </c>
       <c r="E1958">
-        <v>-2.7126193010089</v>
+        <v>-2.659193976970782</v>
       </c>
       <c r="F1958">
         <v>1</v>
       </c>
       <c r="G1958">
-        <v>0.02611012558000937</v>
+        <v>0.02620327612931799</v>
       </c>
       <c r="H1958">
-        <v>0.0253126193010089</v>
+        <v>0.02525919397697078</v>
       </c>
       <c r="I1958">
-        <v>0.6775062790004664</v>
+        <v>0.4640821523472098</v>
       </c>
       <c r="J1958">
-        <v>3.072942829168618</v>
+        <v>3.061226749335697</v>
       </c>
       <c r="K1958">
-        <v>4.8</v>
+        <v>4.79</v>
       </c>
       <c r="L1958">
-        <v>11.36</v>
+        <v>11.54</v>
       </c>
       <c r="M1958">
         <v>4.56</v>
@@ -99519,45 +99519,45 @@
         <v>1</v>
       </c>
       <c r="P1958" t="s">
-        <v>793</v>
+        <v>356</v>
       </c>
     </row>
     <row r="1959" spans="1:16">
       <c r="A1959" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1959" t="s">
         <v>366</v>
       </c>
       <c r="C1959">
-        <v>-3.217937295134307</v>
+        <v>-2.463437561358738</v>
       </c>
       <c r="D1959" t="s">
         <v>614</v>
       </c>
       <c r="E1959">
-        <v>-2.7126193010089</v>
+        <v>-2.031038680541931</v>
       </c>
       <c r="F1959">
         <v>1</v>
       </c>
       <c r="G1959">
-        <v>0.02609793729513431</v>
+        <v>0.02554343756135874</v>
       </c>
       <c r="H1959">
-        <v>0.0253126193010089</v>
+        <v>0.02463103868054194</v>
       </c>
       <c r="I1959">
-        <v>0.5053179941254076</v>
+        <v>0.4323988808168071</v>
       </c>
       <c r="J1959">
-        <v>3.072942829168618</v>
+        <v>2.923473394855686</v>
       </c>
       <c r="K1959">
-        <v>4.77</v>
+        <v>4.79</v>
       </c>
       <c r="L1959">
-        <v>11.44</v>
+        <v>11.54</v>
       </c>
       <c r="M1959">
         <v>4.56</v>
@@ -99569,7 +99569,7 @@
         <v>1</v>
       </c>
       <c r="P1959" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1960" spans="1:16">
@@ -99580,34 +99580,34 @@
         <v>367</v>
       </c>
       <c r="C1960">
-        <v>-3.123276129317992</v>
+        <v>-0.9711299006237706</v>
       </c>
       <c r="D1960" t="s">
         <v>614</v>
       </c>
       <c r="E1960">
-        <v>-2.659193976970782</v>
+        <v>-0.6722847045988214</v>
       </c>
       <c r="F1960">
         <v>1</v>
       </c>
       <c r="G1960">
-        <v>0.02620327612931799</v>
+        <v>0.02397112990062377</v>
       </c>
       <c r="H1960">
-        <v>0.02525919397697078</v>
+        <v>0.02327228470459882</v>
       </c>
       <c r="I1960">
-        <v>0.4640821523472098</v>
+        <v>0.2988451960249492</v>
       </c>
       <c r="J1960">
-        <v>3.061226749335697</v>
+        <v>2.625501031710268</v>
       </c>
       <c r="K1960">
-        <v>4.79</v>
+        <v>4.75</v>
       </c>
       <c r="L1960">
-        <v>11.54</v>
+        <v>11.5</v>
       </c>
       <c r="M1960">
         <v>4.56</v>
@@ -99619,45 +99619,45 @@
         <v>1</v>
       </c>
       <c r="P1960" t="s">
-        <v>356</v>
+        <v>609</v>
       </c>
     </row>
     <row r="1961" spans="1:16">
       <c r="A1961" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1961" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C1961">
-        <v>-2.463437561358738</v>
+        <v>-0.9923648696724623</v>
       </c>
       <c r="D1961" t="s">
         <v>614</v>
       </c>
       <c r="E1961">
-        <v>-2.031038680541931</v>
+        <v>-0.6722847045988214</v>
       </c>
       <c r="F1961">
         <v>1</v>
       </c>
       <c r="G1961">
-        <v>0.02554343756135874</v>
+        <v>0.02379236486967246</v>
       </c>
       <c r="H1961">
-        <v>0.02463103868054194</v>
+        <v>0.02327228470459882</v>
       </c>
       <c r="I1961">
-        <v>0.4323988808168071</v>
+        <v>0.3200801650736409</v>
       </c>
       <c r="J1961">
-        <v>2.923473394855686</v>
+        <v>2.625501031710268</v>
       </c>
       <c r="K1961">
-        <v>4.79</v>
+        <v>4.72</v>
       </c>
       <c r="L1961">
-        <v>11.54</v>
+        <v>11.4</v>
       </c>
       <c r="M1961">
         <v>4.56</v>
@@ -99669,7 +99669,7 @@
         <v>1</v>
       </c>
       <c r="P1961" t="s">
-        <v>794</v>
+        <v>609</v>
       </c>
     </row>
     <row r="1962" spans="1:16">
@@ -99677,31 +99677,31 @@
         <v>0</v>
       </c>
       <c r="B1962" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1962">
-        <v>-0.9711299006237706</v>
+        <v>0.1722390805860297</v>
       </c>
       <c r="D1962" t="s">
         <v>614</v>
       </c>
       <c r="E1962">
-        <v>-0.6722847045988214</v>
+        <v>0.4253495173625872</v>
       </c>
       <c r="F1962">
         <v>1</v>
       </c>
       <c r="G1962">
-        <v>0.02397112990062377</v>
+        <v>0.02282776091941397</v>
       </c>
       <c r="H1962">
-        <v>0.02327228470459882</v>
+        <v>0.02217465048263741</v>
       </c>
       <c r="I1962">
-        <v>0.2988451960249492</v>
+        <v>0.2531104367765575</v>
       </c>
       <c r="J1962">
-        <v>2.625501031710268</v>
+        <v>2.384791772508204</v>
       </c>
       <c r="K1962">
         <v>4.75</v>
@@ -99719,7 +99719,7 @@
         <v>1</v>
       </c>
       <c r="P1962" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1963" spans="1:16">
@@ -99730,46 +99730,46 @@
         <v>369</v>
       </c>
       <c r="C1963">
-        <v>-0.9923648696724623</v>
+        <v>0.6576995427645578</v>
       </c>
       <c r="D1963" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1963">
-        <v>-0.6722847045988214</v>
+        <v>0.6646349668401328</v>
       </c>
       <c r="F1963">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1963">
-        <v>0.02379236486967246</v>
+        <v>0.02126230045723545</v>
       </c>
       <c r="H1963">
-        <v>0.02327228470459882</v>
+        <v>0.02093536503315987</v>
       </c>
       <c r="I1963">
-        <v>0.3200801650736409</v>
+        <v>-0.006935424075575014</v>
       </c>
       <c r="J1963">
-        <v>2.625501031710268</v>
+        <v>2.384791772508204</v>
       </c>
       <c r="K1963">
-        <v>4.72</v>
+        <v>4.32</v>
       </c>
       <c r="L1963">
-        <v>11.4</v>
+        <v>10.96</v>
       </c>
       <c r="M1963">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1963">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1963" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1964" spans="1:16">
@@ -99777,31 +99777,31 @@
         <v>0</v>
       </c>
       <c r="B1964" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1964">
-        <v>0.1722390805860297</v>
+        <v>1.137917571557544</v>
       </c>
       <c r="D1964" t="s">
         <v>614</v>
       </c>
       <c r="E1964">
-        <v>0.4253495173625872</v>
+        <v>1.352400868695243</v>
       </c>
       <c r="F1964">
         <v>1</v>
       </c>
       <c r="G1964">
-        <v>0.02282776091941397</v>
+        <v>0.02186208242844246</v>
       </c>
       <c r="H1964">
-        <v>0.02217465048263741</v>
+        <v>0.02124759913130476</v>
       </c>
       <c r="I1964">
-        <v>0.2531104367765575</v>
+        <v>0.2144832971376989</v>
       </c>
       <c r="J1964">
-        <v>2.384791772508204</v>
+        <v>2.181491037566833</v>
       </c>
       <c r="K1964">
         <v>4.75</v>
@@ -99819,7 +99819,7 @@
         <v>1</v>
       </c>
       <c r="P1964" t="s">
-        <v>610</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1965" spans="1:16">
@@ -99827,31 +99827,31 @@
         <v>1</v>
       </c>
       <c r="B1965" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1965">
-        <v>0.1437828337612768</v>
+        <v>1.103362302684552</v>
       </c>
       <c r="D1965" t="s">
         <v>614</v>
       </c>
       <c r="E1965">
-        <v>0.4253495173625872</v>
+        <v>1.352400868695243</v>
       </c>
       <c r="F1965">
         <v>1</v>
       </c>
       <c r="G1965">
-        <v>0.02265621716623873</v>
+        <v>0.02169663769731545</v>
       </c>
       <c r="H1965">
-        <v>0.02217465048263741</v>
+        <v>0.02124759913130476</v>
       </c>
       <c r="I1965">
-        <v>0.2815666836013104</v>
+        <v>0.2490385660106913</v>
       </c>
       <c r="J1965">
-        <v>2.384791772508204</v>
+        <v>2.181491037566833</v>
       </c>
       <c r="K1965">
         <v>4.72</v>
@@ -99869,7 +99869,7 @@
         <v>1</v>
       </c>
       <c r="P1965" t="s">
-        <v>610</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1966" spans="1:16">
@@ -99880,72 +99880,93 @@
         <v>370</v>
       </c>
       <c r="C1966">
-        <v>0.6576995427645578</v>
+        <v>1.145141227192571</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1966">
+        <v>1.352400868695243</v>
       </c>
       <c r="F1966">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1966">
-        <v>0.02126230045723545</v>
+        <v>0.02121485877280743</v>
+      </c>
+      <c r="H1966">
+        <v>0.02124759913130476</v>
+      </c>
+      <c r="I1966">
+        <v>0.207259641502672</v>
       </c>
       <c r="J1966">
-        <v>2.384791772508204</v>
+        <v>2.181491037566833</v>
       </c>
       <c r="K1966">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="L1966">
-        <v>10.96</v>
+        <v>11.18</v>
+      </c>
+      <c r="M1966">
+        <v>4.56</v>
+      </c>
+      <c r="N1966">
+        <v>11.3</v>
+      </c>
+      <c r="O1966">
+        <v>1</v>
       </c>
       <c r="P1966" t="s">
-        <v>610</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1967" spans="1:16">
       <c r="A1967" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1967" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1967">
-        <v>1.137917571557544</v>
+        <v>1.535958717711283</v>
       </c>
       <c r="D1967" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1967">
-        <v>1.352400868695243</v>
+        <v>1.528663090340963</v>
       </c>
       <c r="F1967">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1967">
-        <v>0.02186208242844246</v>
+        <v>0.02038404128228872</v>
       </c>
       <c r="H1967">
-        <v>0.02124759913130476</v>
+        <v>0.02007133690965904</v>
       </c>
       <c r="I1967">
-        <v>0.2144832971376989</v>
+        <v>0.00729562737032019</v>
       </c>
       <c r="J1967">
         <v>2.181491037566833</v>
       </c>
       <c r="K1967">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1967">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1967">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1967">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1967">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1967" t="s">
         <v>357</v>
@@ -99953,40 +99974,40 @@
     </row>
     <row r="1968" spans="1:16">
       <c r="A1968" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1968" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1968">
-        <v>1.103362302684552</v>
+        <v>1.243880896429898</v>
       </c>
       <c r="D1968" t="s">
         <v>614</v>
       </c>
       <c r="E1968">
-        <v>1.352400868695243</v>
+        <v>1.454125660572702</v>
       </c>
       <c r="F1968">
         <v>1</v>
       </c>
       <c r="G1968">
-        <v>0.02169663769731545</v>
+        <v>0.0217561191035701</v>
       </c>
       <c r="H1968">
-        <v>0.02124759913130476</v>
+        <v>0.0211458743394273</v>
       </c>
       <c r="I1968">
-        <v>0.2490385660106913</v>
+        <v>0.2102447641428036</v>
       </c>
       <c r="J1968">
-        <v>2.181491037566833</v>
+        <v>2.159182969172653</v>
       </c>
       <c r="K1968">
-        <v>4.72</v>
+        <v>4.75</v>
       </c>
       <c r="L1968">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M1968">
         <v>4.56</v>
@@ -99998,45 +100019,45 @@
         <v>1</v>
       </c>
       <c r="P1968" t="s">
-        <v>357</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1969" spans="1:16">
       <c r="A1969" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1969" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C1969">
-        <v>1.145141227192571</v>
+        <v>1.208656385505078</v>
       </c>
       <c r="D1969" t="s">
         <v>614</v>
       </c>
       <c r="E1969">
-        <v>1.352400868695243</v>
+        <v>1.454125660572702</v>
       </c>
       <c r="F1969">
         <v>1</v>
       </c>
       <c r="G1969">
-        <v>0.02121485877280743</v>
+        <v>0.02159134361449493</v>
       </c>
       <c r="H1969">
-        <v>0.02124759913130476</v>
+        <v>0.0211458743394273</v>
       </c>
       <c r="I1969">
-        <v>0.207259641502672</v>
+        <v>0.2454692750676237</v>
       </c>
       <c r="J1969">
-        <v>2.181491037566833</v>
+        <v>2.159182969172653</v>
       </c>
       <c r="K1969">
-        <v>4.6</v>
+        <v>4.72</v>
       </c>
       <c r="L1969">
-        <v>11.18</v>
+        <v>11.4</v>
       </c>
       <c r="M1969">
         <v>4.56</v>
@@ -100048,83 +100069,104 @@
         <v>1</v>
       </c>
       <c r="P1969" t="s">
-        <v>357</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1970" spans="1:16">
       <c r="A1970" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1970" t="s">
         <v>370</v>
       </c>
       <c r="C1970">
-        <v>1.535958717711283</v>
+        <v>1.247758341805795</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1970">
+        <v>1.454125660572702</v>
       </c>
       <c r="F1970">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1970">
-        <v>0.02038404128228872</v>
+        <v>0.0211122416581942</v>
+      </c>
+      <c r="H1970">
+        <v>0.0211458743394273</v>
+      </c>
+      <c r="I1970">
+        <v>0.2063673187669064</v>
       </c>
       <c r="J1970">
-        <v>2.181491037566833</v>
+        <v>2.159182969172653</v>
       </c>
       <c r="K1970">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="L1970">
-        <v>10.96</v>
+        <v>11.18</v>
+      </c>
+      <c r="M1970">
+        <v>4.56</v>
+      </c>
+      <c r="N1970">
+        <v>11.3</v>
+      </c>
+      <c r="O1970">
+        <v>1</v>
       </c>
       <c r="P1970" t="s">
-        <v>357</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1971" spans="1:16">
       <c r="A1971" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1971" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1971">
-        <v>1.243880896429898</v>
+        <v>1.632329573174138</v>
       </c>
       <c r="D1971" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1971">
-        <v>1.454125660572702</v>
+        <v>1.623472381016224</v>
       </c>
       <c r="F1971">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1971">
-        <v>0.0217561191035701</v>
+        <v>0.02028767042682586</v>
       </c>
       <c r="H1971">
-        <v>0.0211458743394273</v>
+        <v>0.01997652761898378</v>
       </c>
       <c r="I1971">
-        <v>0.2102447641428036</v>
+        <v>0.008857192157913474</v>
       </c>
       <c r="J1971">
         <v>2.159182969172653</v>
       </c>
       <c r="K1971">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1971">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1971">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1971">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1971">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1971" t="s">
         <v>613</v>
@@ -100132,40 +100174,40 @@
     </row>
     <row r="1972" spans="1:16">
       <c r="A1972" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1972" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1972">
-        <v>1.208656385505078</v>
+        <v>0.8761599758225351</v>
       </c>
       <c r="D1972" t="s">
         <v>614</v>
       </c>
       <c r="E1972">
-        <v>1.454125660572702</v>
+        <v>1.101113576789635</v>
       </c>
       <c r="F1972">
         <v>1</v>
       </c>
       <c r="G1972">
-        <v>0.02159134361449493</v>
+        <v>0.02212384002417746</v>
       </c>
       <c r="H1972">
-        <v>0.0211458743394273</v>
+        <v>0.02149888642321036</v>
       </c>
       <c r="I1972">
-        <v>0.2454692750676237</v>
+        <v>0.2249536009670994</v>
       </c>
       <c r="J1972">
-        <v>2.159182969172653</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1972">
-        <v>4.72</v>
+        <v>4.75</v>
       </c>
       <c r="L1972">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M1972">
         <v>4.56</v>
@@ -100177,45 +100219,45 @@
         <v>1</v>
       </c>
       <c r="P1972" t="s">
-        <v>613</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1973" spans="1:16">
       <c r="A1973" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1973" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C1973">
-        <v>1.247758341805795</v>
+        <v>0.8432579128173412</v>
       </c>
       <c r="D1973" t="s">
         <v>614</v>
       </c>
       <c r="E1973">
-        <v>1.454125660572702</v>
+        <v>1.101113576789635</v>
       </c>
       <c r="F1973">
         <v>1</v>
       </c>
       <c r="G1973">
-        <v>0.0211122416581942</v>
+        <v>0.02195674208718266</v>
       </c>
       <c r="H1973">
-        <v>0.0211458743394273</v>
+        <v>0.02149888642321036</v>
       </c>
       <c r="I1973">
-        <v>0.2063673187669064</v>
+        <v>0.2578556639722933</v>
       </c>
       <c r="J1973">
-        <v>2.159182969172653</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1973">
-        <v>4.6</v>
+        <v>4.72</v>
       </c>
       <c r="L1973">
-        <v>11.18</v>
+        <v>11.4</v>
       </c>
       <c r="M1973">
         <v>4.56</v>
@@ -100227,83 +100269,104 @@
         <v>1</v>
       </c>
       <c r="P1973" t="s">
-        <v>613</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1974" spans="1:16">
       <c r="A1974" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1974" t="s">
         <v>370</v>
       </c>
       <c r="C1974">
-        <v>1.632329573174138</v>
+        <v>0.8916496607965616</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1974">
+        <v>1.101113576789635</v>
       </c>
       <c r="F1974">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1974">
-        <v>0.02028767042682586</v>
+        <v>0.02146835033920344</v>
+      </c>
+      <c r="H1974">
+        <v>0.02149888642321036</v>
+      </c>
+      <c r="I1974">
+        <v>0.2094639159930729</v>
       </c>
       <c r="J1974">
-        <v>2.159182969172653</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1974">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="L1974">
-        <v>10.96</v>
+        <v>11.18</v>
+      </c>
+      <c r="M1974">
+        <v>4.56</v>
+      </c>
+      <c r="N1974">
+        <v>11.3</v>
+      </c>
+      <c r="O1974">
+        <v>1</v>
       </c>
       <c r="P1974" t="s">
-        <v>613</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1975" spans="1:16">
       <c r="A1975" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1975" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1975">
-        <v>0.8761599758225351</v>
+        <v>1.297897072748075</v>
       </c>
       <c r="D1975" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1975">
-        <v>1.101113576789635</v>
+        <v>1.294458925735954</v>
       </c>
       <c r="F1975">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1975">
-        <v>0.02212384002417746</v>
+        <v>0.02062210292725193</v>
       </c>
       <c r="H1975">
-        <v>0.02149888642321036</v>
+        <v>0.02030554107426405</v>
       </c>
       <c r="I1975">
-        <v>0.2249536009670994</v>
+        <v>0.003438147012120751</v>
       </c>
       <c r="J1975">
         <v>2.236597899826835</v>
       </c>
       <c r="K1975">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1975">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1975">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1975">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1975">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1975" t="s">
         <v>795</v>
@@ -100311,40 +100374,40 @@
     </row>
     <row r="1976" spans="1:16">
       <c r="A1976" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1976" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1976">
-        <v>0.8432579128173412</v>
+        <v>0.9514043421892833</v>
       </c>
       <c r="D1976" t="s">
         <v>614</v>
       </c>
       <c r="E1976">
-        <v>1.101113576789635</v>
+        <v>1.173348168501711</v>
       </c>
       <c r="F1976">
         <v>1</v>
       </c>
       <c r="G1976">
-        <v>0.02195674208718266</v>
+        <v>0.02204859565781072</v>
       </c>
       <c r="H1976">
-        <v>0.02149888642321036</v>
+        <v>0.02142665183149829</v>
       </c>
       <c r="I1976">
-        <v>0.2578556639722933</v>
+        <v>0.2219438263124278</v>
       </c>
       <c r="J1976">
-        <v>2.236597899826835</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1976">
-        <v>4.72</v>
+        <v>4.75</v>
       </c>
       <c r="L1976">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M1976">
         <v>4.56</v>
@@ -100356,45 +100419,45 @@
         <v>1</v>
       </c>
       <c r="P1976" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1977" spans="1:16">
       <c r="A1977" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1977" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C1977">
-        <v>0.8916496607965616</v>
+        <v>0.9180270516070372</v>
       </c>
       <c r="D1977" t="s">
         <v>614</v>
       </c>
       <c r="E1977">
-        <v>1.101113576789635</v>
+        <v>1.173348168501711</v>
       </c>
       <c r="F1977">
         <v>1</v>
       </c>
       <c r="G1977">
-        <v>0.02146835033920344</v>
+        <v>0.02188197294839296</v>
       </c>
       <c r="H1977">
-        <v>0.02149888642321036</v>
+        <v>0.02142665183149829</v>
       </c>
       <c r="I1977">
-        <v>0.2094639159930729</v>
+        <v>0.2553211168946738</v>
       </c>
       <c r="J1977">
-        <v>2.236597899826835</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1977">
-        <v>4.6</v>
+        <v>4.72</v>
       </c>
       <c r="L1977">
-        <v>11.18</v>
+        <v>11.4</v>
       </c>
       <c r="M1977">
         <v>4.56</v>
@@ -100406,83 +100469,104 @@
         <v>1</v>
       </c>
       <c r="P1977" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1978" spans="1:16">
       <c r="A1978" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1978" t="s">
         <v>370</v>
       </c>
       <c r="C1978">
-        <v>1.297897072748075</v>
+        <v>0.9645178892780439</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>614</v>
+      </c>
+      <c r="E1978">
+        <v>1.173348168501711</v>
       </c>
       <c r="F1978">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1978">
-        <v>0.02062210292725193</v>
+        <v>0.02139548211072196</v>
+      </c>
+      <c r="H1978">
+        <v>0.02142665183149829</v>
+      </c>
+      <c r="I1978">
+        <v>0.2088302792236671</v>
       </c>
       <c r="J1978">
-        <v>2.236597899826835</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1978">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="L1978">
-        <v>10.96</v>
+        <v>11.18</v>
+      </c>
+      <c r="M1978">
+        <v>4.56</v>
+      </c>
+      <c r="N1978">
+        <v>11.3</v>
+      </c>
+      <c r="O1978">
+        <v>1</v>
       </c>
       <c r="P1978" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1979" spans="1:16">
       <c r="A1979" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1979" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1979">
-        <v>0.9514043421892833</v>
+        <v>1.366329843843728</v>
       </c>
       <c r="D1979" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1979">
-        <v>1.173348168501711</v>
+        <v>1.361782832485149</v>
       </c>
       <c r="F1979">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1979">
-        <v>0.02204859565781072</v>
+        <v>0.02055367015615627</v>
       </c>
       <c r="H1979">
-        <v>0.02142665183149829</v>
+        <v>0.02023821716751486</v>
       </c>
       <c r="I1979">
-        <v>0.2219438263124278</v>
+        <v>0.004547011358578601</v>
       </c>
       <c r="J1979">
         <v>2.22075698059173</v>
       </c>
       <c r="K1979">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1979">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1979">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1979">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1979">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1979" t="s">
         <v>796</v>
@@ -100490,34 +100574,34 @@
     </row>
     <row r="1980" spans="1:16">
       <c r="A1980" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1980" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1980">
-        <v>0.9180270516070372</v>
+        <v>1.15608384737822</v>
       </c>
       <c r="D1980" t="s">
         <v>614</v>
       </c>
       <c r="E1980">
-        <v>1.173348168501711</v>
+        <v>1.403335242382347</v>
       </c>
       <c r="F1980">
         <v>1</v>
       </c>
       <c r="G1980">
-        <v>0.02188197294839296</v>
+        <v>0.02164391615262178</v>
       </c>
       <c r="H1980">
-        <v>0.02142665183149829</v>
+        <v>0.02119666475761765</v>
       </c>
       <c r="I1980">
-        <v>0.2553211168946738</v>
+        <v>0.2472513950041275</v>
       </c>
       <c r="J1980">
-        <v>2.22075698059173</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1980">
         <v>4.72</v>
@@ -100535,39 +100619,39 @@
         <v>1</v>
       </c>
       <c r="P1980" t="s">
-        <v>796</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1981" spans="1:16">
       <c r="A1981" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1981" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1981">
-        <v>0.9645178892780439</v>
+        <v>1.196522393631316</v>
       </c>
       <c r="D1981" t="s">
         <v>614</v>
       </c>
       <c r="E1981">
-        <v>1.173348168501711</v>
+        <v>1.403335242382347</v>
       </c>
       <c r="F1981">
         <v>1</v>
       </c>
       <c r="G1981">
-        <v>0.02139548211072196</v>
+        <v>0.02116347760636868</v>
       </c>
       <c r="H1981">
-        <v>0.02142665183149829</v>
+        <v>0.02119666475761765</v>
       </c>
       <c r="I1981">
-        <v>0.2088302792236671</v>
+        <v>0.2068128487510315</v>
       </c>
       <c r="J1981">
-        <v>2.22075698059173</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1981">
         <v>4.6</v>
@@ -100585,27 +100669,39 @@
         <v>1</v>
       </c>
       <c r="P1981" t="s">
-        <v>796</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1982" spans="1:16">
       <c r="A1982" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1982" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1982">
-        <v>1.366329843843728</v>
+        <v>1.584212334888541</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1982">
+        <v>1.576134820202846</v>
       </c>
       <c r="F1982">
         <v>-1</v>
       </c>
       <c r="G1982">
-        <v>0.02055367015615627</v>
+        <v>0.02033578766511146</v>
+      </c>
+      <c r="H1982">
+        <v>0.02002386517979715</v>
+      </c>
+      <c r="I1982">
+        <v>0.008077514685695064</v>
       </c>
       <c r="J1982">
-        <v>2.22075698059173</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1982">
         <v>4.32</v>
@@ -100613,8 +100709,17 @@
       <c r="L1982">
         <v>10.96</v>
       </c>
+      <c r="M1982">
+        <v>4.25</v>
+      </c>
+      <c r="N1982">
+        <v>10.8</v>
+      </c>
+      <c r="O1982">
+        <v>0</v>
+      </c>
       <c r="P1982" t="s">
-        <v>796</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1983" spans="1:16">
@@ -100622,31 +100727,31 @@
         <v>0</v>
       </c>
       <c r="B1983" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C1983">
-        <v>1.15608384737822</v>
+        <v>1.414669241723729</v>
       </c>
       <c r="D1983" t="s">
         <v>614</v>
       </c>
       <c r="E1983">
-        <v>1.403335242382347</v>
+        <v>1.653155030139873</v>
       </c>
       <c r="F1983">
         <v>1</v>
       </c>
       <c r="G1983">
-        <v>0.02164391615262178</v>
+        <v>0.02138533075827627</v>
       </c>
       <c r="H1983">
-        <v>0.02119666475761765</v>
+        <v>0.02094684496986013</v>
       </c>
       <c r="I1983">
-        <v>0.2472513950041275</v>
+        <v>0.2384857884161438</v>
       </c>
       <c r="J1983">
-        <v>2.170321218775801</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1983">
         <v>4.72</v>
@@ -100664,7 +100769,7 @@
         <v>1</v>
       </c>
       <c r="P1983" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1984" spans="1:16">
@@ -100672,31 +100777,31 @@
         <v>1</v>
       </c>
       <c r="B1984" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1984">
-        <v>1.196522393631316</v>
+        <v>1.448533583035836</v>
       </c>
       <c r="D1984" t="s">
         <v>614</v>
       </c>
       <c r="E1984">
-        <v>1.403335242382347</v>
+        <v>1.653155030139873</v>
       </c>
       <c r="F1984">
         <v>1</v>
       </c>
       <c r="G1984">
-        <v>0.02116347760636868</v>
+        <v>0.02091146641696416</v>
       </c>
       <c r="H1984">
-        <v>0.02119666475761765</v>
+        <v>0.02094684496986013</v>
       </c>
       <c r="I1984">
-        <v>0.2068128487510315</v>
+        <v>0.2046214471040368</v>
       </c>
       <c r="J1984">
-        <v>2.170321218775801</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1984">
         <v>4.6</v>
@@ -100714,7 +100819,7 @@
         <v>1</v>
       </c>
       <c r="P1984" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1985" spans="1:16">
@@ -100722,110 +100827,131 @@
         <v>2</v>
       </c>
       <c r="B1985" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1985">
-        <v>1.584212334888541</v>
+        <v>1.362397924347944</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1985">
+        <v>1.930126606972163</v>
       </c>
       <c r="F1985">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1985">
-        <v>0.02033578766511146</v>
+        <v>0.02031760207565205</v>
+      </c>
+      <c r="H1985">
+        <v>0.01986987339302784</v>
+      </c>
+      <c r="I1985">
+        <v>0.5677286826242192</v>
       </c>
       <c r="J1985">
-        <v>2.170321218775801</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1985">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1985">
-        <v>10.96</v>
+        <v>10.84</v>
+      </c>
+      <c r="M1985">
+        <v>4.24</v>
+      </c>
+      <c r="N1985">
+        <v>10.9</v>
+      </c>
+      <c r="O1985">
+        <v>1</v>
       </c>
       <c r="P1985" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1986" spans="1:16">
       <c r="A1986" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1986" t="s">
         <v>369</v>
       </c>
       <c r="C1986">
-        <v>1.414669241723729</v>
+        <v>1.82088371276409</v>
       </c>
       <c r="D1986" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1986">
-        <v>1.653155030139873</v>
+        <v>1.808971245196155</v>
       </c>
       <c r="F1986">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1986">
-        <v>0.02138533075827627</v>
+        <v>0.02009911628723591</v>
       </c>
       <c r="H1986">
-        <v>0.02094684496986013</v>
+        <v>0.01979102875480385</v>
       </c>
       <c r="I1986">
-        <v>0.2384857884161438</v>
+        <v>0.01191246756793518</v>
       </c>
       <c r="J1986">
         <v>2.115536177600905</v>
       </c>
       <c r="K1986">
-        <v>4.72</v>
+        <v>4.32</v>
       </c>
       <c r="L1986">
-        <v>11.4</v>
+        <v>10.96</v>
       </c>
       <c r="M1986">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1986">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1986">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1986" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1987" spans="1:16">
       <c r="A1987" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1987" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1987">
-        <v>1.448533583035836</v>
+        <v>1.042132396478898</v>
       </c>
       <c r="D1987" t="s">
-        <v>614</v>
+        <v>361</v>
       </c>
       <c r="E1987">
-        <v>1.653155030139873</v>
+        <v>1.306210081711599</v>
       </c>
       <c r="F1987">
         <v>1</v>
       </c>
       <c r="G1987">
-        <v>0.02091146641696416</v>
+        <v>0.0213178676035211</v>
       </c>
       <c r="H1987">
-        <v>0.02094684496986013</v>
+        <v>0.0214937899182884</v>
       </c>
       <c r="I1987">
-        <v>0.2046214471040368</v>
+        <v>0.2640776852327011</v>
       </c>
       <c r="J1987">
-        <v>2.115536177600905</v>
+        <v>2.203884261635022</v>
       </c>
       <c r="K1987">
         <v>4.6</v>
@@ -100834,127 +100960,148 @@
         <v>11.18</v>
       </c>
       <c r="M1987">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="N1987">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="O1987">
         <v>1</v>
       </c>
       <c r="P1987" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1988" spans="1:16">
       <c r="A1988" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1988" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1988">
-        <v>1.82088371276409</v>
+        <v>0.9665985078750996</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1988">
+        <v>1.555530730667506</v>
       </c>
       <c r="F1988">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1988">
-        <v>0.02009911628723591</v>
+        <v>0.0207134014921249</v>
+      </c>
+      <c r="H1988">
+        <v>0.02024446926933249</v>
+      </c>
+      <c r="I1988">
+        <v>0.5889322227924065</v>
       </c>
       <c r="J1988">
-        <v>2.115536177600905</v>
+        <v>2.203884261635022</v>
       </c>
       <c r="K1988">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1988">
-        <v>10.96</v>
+        <v>10.84</v>
+      </c>
+      <c r="M1988">
+        <v>4.24</v>
+      </c>
+      <c r="N1988">
+        <v>10.9</v>
+      </c>
+      <c r="O1988">
+        <v>1</v>
       </c>
       <c r="P1988" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1989" spans="1:16">
       <c r="A1989" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1989" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C1989">
-        <v>1.042132396478898</v>
+        <v>1.439219989736705</v>
       </c>
       <c r="D1989" t="s">
-        <v>614</v>
+        <v>373</v>
       </c>
       <c r="E1989">
-        <v>1.250287766944298</v>
+        <v>1.433491888051156</v>
       </c>
       <c r="F1989">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1989">
-        <v>0.0213178676035211</v>
+        <v>0.02048078001026329</v>
       </c>
       <c r="H1989">
-        <v>0.02134971223305571</v>
+        <v>0.02016650811194884</v>
       </c>
       <c r="I1989">
-        <v>0.2081553704654002</v>
+        <v>0.005728101685548381</v>
       </c>
       <c r="J1989">
         <v>2.203884261635022</v>
       </c>
       <c r="K1989">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="L1989">
-        <v>11.18</v>
+        <v>10.96</v>
       </c>
       <c r="M1989">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="N1989">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="O1989">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1989" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1990" spans="1:16">
       <c r="A1990" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1990" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1990">
-        <v>0.9665985078750996</v>
+        <v>0.6946588507397173</v>
       </c>
       <c r="D1990" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
       <c r="E1990">
-        <v>1.555530730667506</v>
+        <v>1.298159269450091</v>
       </c>
       <c r="F1990">
         <v>1</v>
       </c>
       <c r="G1990">
-        <v>0.0207134014921249</v>
+        <v>0.02098534114926028</v>
       </c>
       <c r="H1990">
-        <v>0.02024446926933249</v>
+        <v>0.02050184073054991</v>
       </c>
       <c r="I1990">
-        <v>0.5889322227924065</v>
+        <v>0.6035004187103734</v>
       </c>
       <c r="J1990">
-        <v>2.203884261635022</v>
+        <v>2.264585077959884</v>
       </c>
       <c r="K1990">
         <v>4.48</v>
@@ -100972,27 +101119,39 @@
         <v>1</v>
       </c>
       <c r="P1990" t="s">
-        <v>366</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1991" spans="1:16">
       <c r="A1991" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1991" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C1991">
-        <v>1.439219989736705</v>
+        <v>1.176992463213301</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1991">
+        <v>1.175513418670493</v>
       </c>
       <c r="F1991">
         <v>-1</v>
       </c>
       <c r="G1991">
-        <v>0.02048078001026329</v>
+        <v>0.0207430075367867</v>
+      </c>
+      <c r="H1991">
+        <v>0.02042448658132951</v>
+      </c>
+      <c r="I1991">
+        <v>0.001479044542808339</v>
       </c>
       <c r="J1991">
-        <v>2.203884261635022</v>
+        <v>2.264585077959884</v>
       </c>
       <c r="K1991">
         <v>4.32</v>
@@ -101000,8 +101159,17 @@
       <c r="L1991">
         <v>10.96</v>
       </c>
+      <c r="M1991">
+        <v>4.25</v>
+      </c>
+      <c r="N1991">
+        <v>10.8</v>
+      </c>
+      <c r="O1991">
+        <v>0</v>
+      </c>
       <c r="P1991" t="s">
-        <v>366</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1992" spans="1:16">
@@ -101009,49 +101177,49 @@
         <v>0</v>
       </c>
       <c r="B1992" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C1992">
-        <v>0.8043876859273418</v>
+        <v>0.4231220503168007</v>
       </c>
       <c r="D1992" t="s">
-        <v>361</v>
+        <v>615</v>
       </c>
       <c r="E1992">
-        <v>1.02820034294373</v>
+        <v>1.041169083335545</v>
       </c>
       <c r="F1992">
         <v>1</v>
       </c>
       <c r="G1992">
-        <v>0.02195561231407266</v>
+        <v>0.0212568779496832</v>
       </c>
       <c r="H1992">
-        <v>0.02177179965705627</v>
+        <v>0.02075883091666446</v>
       </c>
       <c r="I1992">
-        <v>0.2238126570163885</v>
+        <v>0.618047033018744</v>
       </c>
       <c r="J1992">
-        <v>2.264585077959884</v>
+        <v>2.325195970911428</v>
       </c>
       <c r="K1992">
-        <v>4.67</v>
+        <v>4.48</v>
       </c>
       <c r="L1992">
-        <v>11.38</v>
+        <v>10.84</v>
       </c>
       <c r="M1992">
-        <v>4.58</v>
+        <v>4.24</v>
       </c>
       <c r="N1992">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="O1992">
         <v>1</v>
       </c>
       <c r="P1992" t="s">
-        <v>797</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1993" spans="1:16">
@@ -101059,268 +101227,331 @@
         <v>1</v>
       </c>
       <c r="B1993" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C1993">
-        <v>0.6946588507397173</v>
+        <v>0.9151534056626307</v>
       </c>
       <c r="D1993" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E1993">
-        <v>1.298159269450091</v>
+        <v>0.917917123626431</v>
       </c>
       <c r="F1993">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1993">
-        <v>0.02098534114926028</v>
+        <v>0.02100484659433737</v>
       </c>
       <c r="H1993">
-        <v>0.02050184073054991</v>
+        <v>0.02068208287637357</v>
       </c>
       <c r="I1993">
-        <v>0.6035004187103734</v>
+        <v>-0.002763717963800261</v>
       </c>
       <c r="J1993">
-        <v>2.264585077959884</v>
+        <v>2.325195970911428</v>
       </c>
       <c r="K1993">
-        <v>4.48</v>
+        <v>4.32</v>
       </c>
       <c r="L1993">
-        <v>10.84</v>
+        <v>10.96</v>
       </c>
       <c r="M1993">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="N1993">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="O1993">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1993" t="s">
-        <v>797</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1994" spans="1:16">
       <c r="A1994" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1994" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1994">
-        <v>1.176992463213301</v>
+        <v>0.1239124839124841</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1994">
+        <v>0.7579886008457439</v>
       </c>
       <c r="F1994">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1994">
-        <v>0.0207430075367867</v>
+        <v>0.02155608751608751</v>
+      </c>
+      <c r="H1994">
+        <v>0.02104201139915425</v>
+      </c>
+      <c r="I1994">
+        <v>0.6340761169332598</v>
       </c>
       <c r="J1994">
-        <v>2.264585077959884</v>
+        <v>2.391983820555249</v>
       </c>
       <c r="K1994">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1994">
-        <v>10.96</v>
+        <v>10.84</v>
+      </c>
+      <c r="M1994">
+        <v>4.24</v>
+      </c>
+      <c r="N1994">
+        <v>10.9</v>
+      </c>
+      <c r="O1994">
+        <v>1</v>
       </c>
       <c r="P1994" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1995" spans="1:16">
       <c r="A1995" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1995">
+        <v>0.6266298952013258</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1995">
+        <v>0.6340687626401937</v>
+      </c>
+      <c r="F1995">
+        <v>-1</v>
+      </c>
+      <c r="G1995">
+        <v>0.02129337010479868</v>
+      </c>
+      <c r="H1995">
+        <v>0.02096593123735981</v>
+      </c>
+      <c r="I1995">
+        <v>-0.007438867438867902</v>
+      </c>
+      <c r="J1995">
+        <v>2.391983820555249</v>
+      </c>
+      <c r="K1995">
+        <v>4.32</v>
+      </c>
+      <c r="L1995">
+        <v>10.96</v>
+      </c>
+      <c r="M1995">
+        <v>4.25</v>
+      </c>
+      <c r="N1995">
+        <v>10.8</v>
+      </c>
+      <c r="O1995">
         <v>0</v>
       </c>
-      <c r="B1995" t="s">
-        <v>372</v>
-      </c>
-      <c r="C1995">
-        <v>0.4231220503168007</v>
-      </c>
-      <c r="D1995" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1995">
-        <v>1.041169083335545</v>
-      </c>
-      <c r="F1995">
-        <v>1</v>
-      </c>
-      <c r="G1995">
-        <v>0.0212568779496832</v>
-      </c>
-      <c r="H1995">
-        <v>0.02075883091666446</v>
-      </c>
-      <c r="I1995">
-        <v>0.618047033018744</v>
-      </c>
-      <c r="J1995">
-        <v>2.325195970911428</v>
-      </c>
-      <c r="K1995">
-        <v>4.48</v>
-      </c>
-      <c r="L1995">
-        <v>10.84</v>
-      </c>
-      <c r="M1995">
-        <v>4.24</v>
-      </c>
-      <c r="N1995">
-        <v>10.9</v>
-      </c>
-      <c r="O1995">
-        <v>1</v>
-      </c>
       <c r="P1995" t="s">
-        <v>369</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1996" spans="1:16">
       <c r="A1996" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1996" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C1996">
-        <v>0.9151534056626307</v>
+        <v>0.0437408837408757</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1996">
+        <v>0.6821119078261866</v>
       </c>
       <c r="F1996">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1996">
-        <v>0.02100484659433737</v>
+        <v>0.02163625911625913</v>
+      </c>
+      <c r="H1996">
+        <v>0.02111788809217382</v>
+      </c>
+      <c r="I1996">
+        <v>0.6383710240853109</v>
       </c>
       <c r="J1996">
-        <v>2.325195970911428</v>
+        <v>2.409879267022126</v>
       </c>
       <c r="K1996">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1996">
-        <v>10.96</v>
+        <v>10.84</v>
+      </c>
+      <c r="M1996">
+        <v>4.24</v>
+      </c>
+      <c r="N1996">
+        <v>10.9</v>
+      </c>
+      <c r="O1996">
+        <v>1</v>
       </c>
       <c r="P1996" t="s">
-        <v>369</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1997" spans="1:16">
       <c r="A1997" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>369</v>
+      </c>
+      <c r="C1997">
+        <v>0.5493215664644158</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1997">
+        <v>0.5580131151559655</v>
+      </c>
+      <c r="F1997">
+        <v>-1</v>
+      </c>
+      <c r="G1997">
+        <v>0.02137067843353559</v>
+      </c>
+      <c r="H1997">
+        <v>0.02104198688484404</v>
+      </c>
+      <c r="I1997">
+        <v>-0.008691548691549755</v>
+      </c>
+      <c r="J1997">
+        <v>2.409879267022126</v>
+      </c>
+      <c r="K1997">
+        <v>4.32</v>
+      </c>
+      <c r="L1997">
+        <v>10.96</v>
+      </c>
+      <c r="M1997">
+        <v>4.25</v>
+      </c>
+      <c r="N1997">
+        <v>10.8</v>
+      </c>
+      <c r="O1997">
         <v>0</v>
       </c>
-      <c r="B1997" t="s">
-        <v>372</v>
-      </c>
-      <c r="C1997">
-        <v>0.1239124839124841</v>
-      </c>
-      <c r="D1997" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1997">
-        <v>0.7579886008457439</v>
-      </c>
-      <c r="F1997">
-        <v>1</v>
-      </c>
-      <c r="G1997">
-        <v>0.02155608751608751</v>
-      </c>
-      <c r="H1997">
-        <v>0.02104201139915425</v>
-      </c>
-      <c r="I1997">
-        <v>0.6340761169332598</v>
-      </c>
-      <c r="J1997">
-        <v>2.391983820555249</v>
-      </c>
-      <c r="K1997">
-        <v>4.48</v>
-      </c>
-      <c r="L1997">
-        <v>10.84</v>
-      </c>
-      <c r="M1997">
-        <v>4.24</v>
-      </c>
-      <c r="N1997">
-        <v>10.9</v>
-      </c>
-      <c r="O1997">
-        <v>1</v>
-      </c>
       <c r="P1997" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1998" spans="1:16">
       <c r="A1998" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1998" t="s">
+        <v>372</v>
+      </c>
+      <c r="C1998">
+        <v>-0.0197326876587649</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1998">
+        <v>0.19852585745131</v>
+      </c>
+      <c r="F1998">
+        <v>1</v>
+      </c>
+      <c r="G1998">
+        <v>0.02257973268765876</v>
+      </c>
+      <c r="H1998">
+        <v>0.02260147414254869</v>
+      </c>
+      <c r="I1998">
+        <v>0.2182585451100749</v>
+      </c>
+      <c r="J1998">
+        <v>2.456463627751905</v>
+      </c>
+      <c r="K1998">
+        <v>4.6</v>
+      </c>
+      <c r="L1998">
+        <v>11.28</v>
+      </c>
+      <c r="M1998">
+        <v>4.56</v>
+      </c>
+      <c r="N1998">
+        <v>11.4</v>
+      </c>
+      <c r="O1998">
+        <v>1</v>
+      </c>
+      <c r="P1998" t="s">
         <v>370</v>
-      </c>
-      <c r="C1998">
-        <v>0.6266298952013258</v>
-      </c>
-      <c r="F1998">
-        <v>-1</v>
-      </c>
-      <c r="G1998">
-        <v>0.02129337010479868</v>
-      </c>
-      <c r="J1998">
-        <v>2.391983820555249</v>
-      </c>
-      <c r="K1998">
-        <v>4.32</v>
-      </c>
-      <c r="L1998">
-        <v>10.96</v>
-      </c>
-      <c r="P1998" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="1999" spans="1:16">
       <c r="A1999" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1999" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1999">
-        <v>0.0437408837408757</v>
+        <v>-0.1649570523285373</v>
       </c>
       <c r="D1999" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
       <c r="E1999">
-        <v>0.6821119078261866</v>
+        <v>0.484594218331921</v>
       </c>
       <c r="F1999">
         <v>1</v>
       </c>
       <c r="G1999">
-        <v>0.02163625911625913</v>
+        <v>0.02184495705232854</v>
       </c>
       <c r="H1999">
-        <v>0.02111788809217382</v>
+        <v>0.02131540578166808</v>
       </c>
       <c r="I1999">
-        <v>0.6383710240853109</v>
+        <v>0.6495512706604583</v>
       </c>
       <c r="J1999">
-        <v>2.409879267022126</v>
+        <v>2.456463627751905</v>
       </c>
       <c r="K1999">
         <v>4.48</v>
@@ -101338,27 +101569,39 @@
         <v>1</v>
       </c>
       <c r="P1999" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2000" spans="1:16">
       <c r="A2000" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2000" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C2000">
-        <v>0.5493215664644158</v>
+        <v>0.3480771281117683</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>373</v>
+      </c>
+      <c r="E2000">
+        <v>0.3600295820544019</v>
       </c>
       <c r="F2000">
         <v>-1</v>
       </c>
       <c r="G2000">
-        <v>0.02137067843353559</v>
+        <v>0.02157192287188824</v>
+      </c>
+      <c r="H2000">
+        <v>0.0212399704179456</v>
+      </c>
+      <c r="I2000">
+        <v>-0.01195245394263367</v>
       </c>
       <c r="J2000">
-        <v>2.409879267022126</v>
+        <v>2.456463627751905</v>
       </c>
       <c r="K2000">
         <v>4.32</v>
@@ -101366,8 +101609,17 @@
       <c r="L2000">
         <v>10.96</v>
       </c>
+      <c r="M2000">
+        <v>4.25</v>
+      </c>
+      <c r="N2000">
+        <v>10.8</v>
+      </c>
+      <c r="O2000">
+        <v>0</v>
+      </c>
       <c r="P2000" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2001" spans="1:16">
@@ -101375,31 +101627,31 @@
         <v>0</v>
       </c>
       <c r="B2001" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C2001">
-        <v>-0.0197326876587649</v>
+        <v>0.1487066885472412</v>
       </c>
       <c r="D2001" t="s">
         <v>360</v>
       </c>
       <c r="E2001">
-        <v>0.19852585745131</v>
+        <v>0.3655005434294392</v>
       </c>
       <c r="F2001">
         <v>1</v>
       </c>
       <c r="G2001">
-        <v>0.02257973268765876</v>
+        <v>0.02241129331145276</v>
       </c>
       <c r="H2001">
-        <v>0.02260147414254869</v>
+        <v>0.02243449945657056</v>
       </c>
       <c r="I2001">
-        <v>0.2182585451100749</v>
+        <v>0.2167938548821979</v>
       </c>
       <c r="J2001">
-        <v>2.456463627751905</v>
+        <v>2.419846372054947</v>
       </c>
       <c r="K2001">
         <v>4.6</v>
@@ -101417,7 +101669,7 @@
         <v>1</v>
       </c>
       <c r="P2001" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2002" spans="1:16">
@@ -101425,31 +101677,31 @@
         <v>1</v>
       </c>
       <c r="B2002" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2002">
-        <v>-0.1649570523285373</v>
+        <v>-0.0009117468061656808</v>
       </c>
       <c r="D2002" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
       <c r="E2002">
-        <v>0.484594218331921</v>
+        <v>0.6398513824870218</v>
       </c>
       <c r="F2002">
         <v>1</v>
       </c>
       <c r="G2002">
-        <v>0.02184495705232854</v>
+        <v>0.02168091174680617</v>
       </c>
       <c r="H2002">
-        <v>0.02131540578166808</v>
+        <v>0.02116014861751298</v>
       </c>
       <c r="I2002">
-        <v>0.6495512706604583</v>
+        <v>0.6407631292931875</v>
       </c>
       <c r="J2002">
-        <v>2.456463627751905</v>
+        <v>2.419846372054947</v>
       </c>
       <c r="K2002">
         <v>4.48</v>
@@ -101467,7 +101719,7 @@
         <v>1</v>
       </c>
       <c r="P2002" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2003" spans="1:16">
@@ -101475,28 +101727,28 @@
         <v>2</v>
       </c>
       <c r="B2003" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C2003">
-        <v>0.3480771281117683</v>
+        <v>0.5156529187664738</v>
       </c>
       <c r="F2003">
         <v>-1</v>
       </c>
       <c r="G2003">
-        <v>0.02157192287188824</v>
+        <v>0.02108434708123353</v>
       </c>
       <c r="J2003">
-        <v>2.456463627751905</v>
+        <v>2.419846372054947</v>
       </c>
       <c r="K2003">
-        <v>4.32</v>
+        <v>4.25</v>
       </c>
       <c r="L2003">
-        <v>10.96</v>
+        <v>10.8</v>
       </c>
       <c r="P2003" t="s">
-        <v>371</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2004" spans="1:16">
@@ -101504,128 +101756,149 @@
         <v>0</v>
       </c>
       <c r="B2004" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C2004">
-        <v>0.1487066885472412</v>
+        <v>0.5907347299485561</v>
       </c>
       <c r="D2004" t="s">
-        <v>360</v>
+        <v>615</v>
       </c>
       <c r="E2004">
-        <v>0.3655005434294392</v>
+        <v>1.199802512272742</v>
       </c>
       <c r="F2004">
         <v>1</v>
       </c>
       <c r="G2004">
-        <v>0.02241129331145276</v>
+        <v>0.02108926527005144</v>
       </c>
       <c r="H2004">
-        <v>0.02243449945657056</v>
+        <v>0.02060019748772726</v>
       </c>
       <c r="I2004">
-        <v>0.2167938548821979</v>
+        <v>0.6090677823241855</v>
       </c>
       <c r="J2004">
-        <v>2.419846372054947</v>
+        <v>2.287782426350768</v>
       </c>
       <c r="K2004">
-        <v>4.6</v>
+        <v>4.48</v>
       </c>
       <c r="L2004">
-        <v>11.28</v>
+        <v>10.84</v>
       </c>
       <c r="M2004">
-        <v>4.56</v>
+        <v>4.24</v>
       </c>
       <c r="N2004">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="O2004">
         <v>1</v>
       </c>
       <c r="P2004" t="s">
-        <v>614</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2005" spans="1:16">
       <c r="A2005" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2005" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C2005">
-        <v>-0.0009117468061656808</v>
+        <v>1.542302013134735</v>
       </c>
       <c r="D2005" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E2005">
-        <v>0.6398513824870218</v>
+        <v>1.308678370605655</v>
       </c>
       <c r="F2005">
         <v>1</v>
       </c>
       <c r="G2005">
-        <v>0.02168091174680617</v>
+        <v>0.02081769798686526</v>
       </c>
       <c r="H2005">
-        <v>0.02116014861751298</v>
+        <v>0.02037132162939434</v>
       </c>
       <c r="I2005">
-        <v>0.6407631292931875</v>
+        <v>-0.2336236425290803</v>
       </c>
       <c r="J2005">
-        <v>2.419846372054947</v>
+        <v>2.127527149418381</v>
       </c>
       <c r="K2005">
+        <v>4.53</v>
+      </c>
+      <c r="L2005">
+        <v>11.18</v>
+      </c>
+      <c r="M2005">
         <v>4.48</v>
       </c>
-      <c r="L2005">
+      <c r="N2005">
         <v>10.84</v>
       </c>
-      <c r="M2005">
-        <v>4.24</v>
-      </c>
-      <c r="N2005">
-        <v>10.9</v>
-      </c>
       <c r="O2005">
         <v>1</v>
       </c>
       <c r="P2005" t="s">
-        <v>614</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2006" spans="1:16">
       <c r="A2006" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2006" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C2006">
-        <v>0.5062636727226266</v>
+        <v>1.987733647230735</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2006">
+        <v>1.749193540749159</v>
       </c>
       <c r="F2006">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2006">
-        <v>0.02141373632727738</v>
+        <v>0.02037226635276927</v>
+      </c>
+      <c r="H2006">
+        <v>0.01993080645925084</v>
+      </c>
+      <c r="I2006">
+        <v>-0.238540106481576</v>
       </c>
       <c r="J2006">
-        <v>2.419846372054947</v>
+        <v>2.029197870368491</v>
       </c>
       <c r="K2006">
-        <v>4.32</v>
+        <v>4.53</v>
       </c>
       <c r="L2006">
-        <v>10.96</v>
+        <v>11.18</v>
+      </c>
+      <c r="M2006">
+        <v>4.48</v>
+      </c>
+      <c r="N2006">
+        <v>10.84</v>
+      </c>
+      <c r="O2006">
+        <v>1</v>
       </c>
       <c r="P2006" t="s">
-        <v>614</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2007" spans="1:16">
@@ -101633,31 +101906,31 @@
         <v>0</v>
       </c>
       <c r="B2007" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2007">
-        <v>0.5907347299485561</v>
+        <v>2.791082198405642</v>
       </c>
       <c r="D2007" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
       <c r="E2007">
-        <v>1.199802512272742</v>
+        <v>3.282274223491054</v>
       </c>
       <c r="F2007">
         <v>1</v>
       </c>
       <c r="G2007">
-        <v>0.02108926527005144</v>
+        <v>0.01888891780159436</v>
       </c>
       <c r="H2007">
-        <v>0.02060019748772726</v>
+        <v>0.01851772577650895</v>
       </c>
       <c r="I2007">
-        <v>0.6090677823241855</v>
+        <v>0.4911920250854127</v>
       </c>
       <c r="J2007">
-        <v>2.287782426350768</v>
+        <v>1.796633437855883</v>
       </c>
       <c r="K2007">
         <v>4.48</v>
@@ -101675,7 +101948,7 @@
         <v>1</v>
       </c>
       <c r="P2007" t="s">
-        <v>374</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2008" spans="1:16">
@@ -101683,31 +101956,31 @@
         <v>0</v>
       </c>
       <c r="B2008" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C2008">
-        <v>2.791082198405642</v>
+        <v>2.887876949904839</v>
       </c>
       <c r="D2008" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
       <c r="E2008">
-        <v>3.282274223491054</v>
+        <v>3.373883541874223</v>
       </c>
       <c r="F2008">
         <v>1</v>
       </c>
       <c r="G2008">
-        <v>0.01888891780159436</v>
+        <v>0.01879212305009516</v>
       </c>
       <c r="H2008">
-        <v>0.01851772577650895</v>
+        <v>0.01842611645812578</v>
       </c>
       <c r="I2008">
-        <v>0.4911920250854127</v>
+        <v>0.4860065919693843</v>
       </c>
       <c r="J2008">
-        <v>1.796633437855883</v>
+        <v>1.775027466539098</v>
       </c>
       <c r="K2008">
         <v>4.48</v>
@@ -101725,7 +101998,7 @@
         <v>1</v>
       </c>
       <c r="P2008" t="s">
-        <v>799</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2009" spans="1:16">
@@ -101733,99 +102006,49 @@
         <v>0</v>
       </c>
       <c r="B2009" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C2009">
-        <v>2.887876949904839</v>
+        <v>3.053603111101056</v>
       </c>
       <c r="D2009" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="E2009">
-        <v>3.373883541874223</v>
+        <v>3.155537225047927</v>
       </c>
       <c r="F2009">
         <v>1</v>
       </c>
       <c r="G2009">
-        <v>0.01879212305009516</v>
+        <v>0.01862639688889894</v>
       </c>
       <c r="H2009">
-        <v>0.01842611645812578</v>
+        <v>0.01876446277495208</v>
       </c>
       <c r="I2009">
-        <v>0.4860065919693843</v>
+        <v>0.1019341139468706</v>
       </c>
       <c r="J2009">
-        <v>1.775027466539098</v>
+        <v>1.80658860531298</v>
       </c>
       <c r="K2009">
-        <v>4.48</v>
+        <v>4.31</v>
       </c>
       <c r="L2009">
         <v>10.84</v>
       </c>
       <c r="M2009">
-        <v>4.24</v>
+        <v>4.32</v>
       </c>
       <c r="N2009">
-        <v>10.9</v>
+        <v>10.96</v>
       </c>
       <c r="O2009">
         <v>1</v>
       </c>
       <c r="P2009" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="2010" spans="1:16">
-      <c r="A2010" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2010" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2010">
-        <v>3.053603111101056</v>
-      </c>
-      <c r="D2010" t="s">
-        <v>370</v>
-      </c>
-      <c r="E2010">
-        <v>3.155537225047927</v>
-      </c>
-      <c r="F2010">
-        <v>1</v>
-      </c>
-      <c r="G2010">
-        <v>0.01862639688889894</v>
-      </c>
-      <c r="H2010">
-        <v>0.01876446277495208</v>
-      </c>
-      <c r="I2010">
-        <v>0.1019341139468706</v>
-      </c>
-      <c r="J2010">
-        <v>1.80658860531298</v>
-      </c>
-      <c r="K2010">
-        <v>4.31</v>
-      </c>
-      <c r="L2010">
-        <v>10.84</v>
-      </c>
-      <c r="M2010">
-        <v>4.32</v>
-      </c>
-      <c r="N2010">
-        <v>10.96</v>
-      </c>
-      <c r="O2010">
-        <v>1</v>
-      </c>
-      <c r="P2010" t="s">
-        <v>365</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>

--- a/s60_signal/position-6881-6886-800.xlsx
+++ b/s60_signal/position-6881-6886-800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6002" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6010" uniqueCount="803">
   <si>
     <t>trade_time</t>
   </si>
@@ -1111,10 +1111,10 @@
     <t>2021-06-04</t>
   </si>
   <si>
-    <t>2021-06-03</t>
+    <t>2021-07-13</t>
   </si>
   <si>
-    <t>2021-07-13</t>
+    <t>2021-06-03</t>
   </si>
   <si>
     <t>2021-06-15</t>
@@ -1123,13 +1123,13 @@
     <t>2021-07-06</t>
   </si>
   <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
     <t>2021-07-15</t>
   </si>
   <si>
     <t>2021-06-11</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
   </si>
   <si>
     <t>2021-06-17</t>
@@ -1858,10 +1858,10 @@
     <t>2021-05-07</t>
   </si>
   <si>
-    <t>2021-06-16</t>
+    <t>2021-05-31</t>
   </si>
   <si>
-    <t>2021-07-16</t>
+    <t>2021-06-16</t>
   </si>
   <si>
     <t>2021-07-07</t>
@@ -2404,9 +2404,6 @@
     <t>2021-05-25</t>
   </si>
   <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
     <t>2021-06-01</t>
   </si>
   <si>
@@ -2783,7 +2780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2015"/>
+  <dimension ref="A1:P2026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96663,7 +96660,7 @@
         <v>5.218027229384798</v>
       </c>
       <c r="D1901" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1901">
         <v>4.925638640730162</v>
@@ -97063,7 +97060,7 @@
         <v>4.781161008967361</v>
       </c>
       <c r="D1909" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1909">
         <v>4.50214587603979</v>
@@ -97563,7 +97560,7 @@
         <v>4.303088561031202</v>
       </c>
       <c r="D1919" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1919">
         <v>4.038708298958818</v>
@@ -98092,7 +98089,7 @@
         <v>3.737983589108724</v>
       </c>
       <c r="D1930" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E1930">
         <v>3.490902458829886</v>
@@ -98442,10 +98439,10 @@
         <v>-0.910910400288067</v>
       </c>
       <c r="D1937" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1937">
-        <v>-0.5972453939866806</v>
+        <v>-0.5315621436716125</v>
       </c>
       <c r="F1937">
         <v>1</v>
@@ -98454,10 +98451,10 @@
         <v>0.02359091040028807</v>
       </c>
       <c r="H1937">
-        <v>0.02287724539398668</v>
+        <v>0.02289156214367161</v>
       </c>
       <c r="I1937">
-        <v>0.3136650063013864</v>
+        <v>0.3793482566164545</v>
       </c>
       <c r="J1937">
         <v>2.568325031506932</v>
@@ -98469,10 +98466,10 @@
         <v>11.34</v>
       </c>
       <c r="M1937">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="N1937">
-        <v>11.14</v>
+        <v>11.18</v>
       </c>
       <c r="O1937">
         <v>1</v>
@@ -98492,10 +98489,10 @@
         <v>-0.8599783952469586</v>
       </c>
       <c r="D1938" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1938">
-        <v>-0.5972453939866806</v>
+        <v>-0.5315621436716125</v>
       </c>
       <c r="F1938">
         <v>1</v>
@@ -98504,10 +98501,10 @@
         <v>0.02281997839524696</v>
       </c>
       <c r="H1938">
-        <v>0.02287724539398668</v>
+        <v>0.02289156214367161</v>
       </c>
       <c r="I1938">
-        <v>0.262733001260278</v>
+        <v>0.3284162515753462</v>
       </c>
       <c r="J1938">
         <v>2.568325031506932</v>
@@ -98519,10 +98516,10 @@
         <v>10.98</v>
       </c>
       <c r="M1938">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="N1938">
-        <v>11.14</v>
+        <v>11.18</v>
       </c>
       <c r="O1938">
         <v>1</v>
@@ -98542,10 +98539,10 @@
         <v>-0.9740778971373736</v>
       </c>
       <c r="D1939" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E1939">
-        <v>-0.5972453939866806</v>
+        <v>-0.5315621436716125</v>
       </c>
       <c r="F1939">
         <v>1</v>
@@ -98554,10 +98551,10 @@
         <v>0.02301407789713737</v>
       </c>
       <c r="H1939">
-        <v>0.02287724539398668</v>
+        <v>0.02289156214367161</v>
       </c>
       <c r="I1939">
-        <v>0.3768325031506929</v>
+        <v>0.4425157534657611</v>
       </c>
       <c r="J1939">
         <v>2.568325031506932</v>
@@ -98569,10 +98566,10 @@
         <v>11.02</v>
       </c>
       <c r="M1939">
-        <v>4.57</v>
+        <v>4.56</v>
       </c>
       <c r="N1939">
-        <v>11.14</v>
+        <v>11.18</v>
       </c>
       <c r="O1939">
         <v>1</v>
@@ -98792,10 +98789,10 @@
         <v>-1.352469636659791</v>
       </c>
       <c r="D1944" t="s">
-        <v>357</v>
+        <v>614</v>
       </c>
       <c r="E1944">
-        <v>-0.9773127540902049</v>
+        <v>-0.8778598188610811</v>
       </c>
       <c r="F1944">
         <v>1</v>
@@ -98804,10 +98801,10 @@
         <v>0.02407246963665979</v>
       </c>
       <c r="H1944">
-        <v>0.02497731275409021</v>
+        <v>0.02491785981886108</v>
       </c>
       <c r="I1944">
-        <v>0.3751568825695859</v>
+        <v>0.4746098177987097</v>
       </c>
       <c r="J1944">
         <v>2.648431174304123</v>
@@ -98819,10 +98816,10 @@
         <v>11.36</v>
       </c>
       <c r="M1944">
-        <v>4.9</v>
+        <v>4.87</v>
       </c>
       <c r="N1944">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="O1944">
         <v>1</v>
@@ -98942,7 +98939,7 @@
         <v>-2.683421755057713</v>
       </c>
       <c r="D1947" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1947">
         <v>-2.041250667304828</v>
@@ -99042,7 +99039,7 @@
         <v>-3.062727010896339</v>
       </c>
       <c r="D1949" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1949">
         <v>-2.401590660351523</v>
@@ -99142,7 +99139,7 @@
         <v>-3.376005035125266</v>
       </c>
       <c r="D1951" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1951">
         <v>-2.699204783369003</v>
@@ -99192,7 +99189,7 @@
         <v>-3.528481251686005</v>
       </c>
       <c r="D1952" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1952">
         <v>-2.844057189101704</v>
@@ -99242,7 +99239,7 @@
         <v>-3.31746358241166</v>
       </c>
       <c r="D1953" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1953">
         <v>-2.844057189101704</v>
@@ -99292,7 +99289,7 @@
         <v>-3.390125580009366</v>
       </c>
       <c r="D1954" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1954">
         <v>-2.7126193010089</v>
@@ -99342,7 +99339,7 @@
         <v>-3.179396151717681</v>
       </c>
       <c r="D1955" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1955">
         <v>-2.7126193010089</v>
@@ -99392,7 +99389,7 @@
         <v>-3.123276129317992</v>
       </c>
       <c r="D1956" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1956">
         <v>-2.659193976970782</v>
@@ -99442,7 +99439,7 @@
         <v>-2.463437561358738</v>
       </c>
       <c r="D1957" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1957">
         <v>-2.031038680541931</v>
@@ -99483,99 +99480,99 @@
     </row>
     <row r="1958" spans="1:16">
       <c r="A1958" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1958" t="s">
         <v>365</v>
       </c>
       <c r="C1958">
-        <v>-0.9711299006237706</v>
+        <v>-1.669405065776566</v>
       </c>
       <c r="D1958" t="s">
-        <v>614</v>
+        <v>369</v>
       </c>
       <c r="E1958">
-        <v>-0.6722847045988214</v>
+        <v>-1.613996662085224</v>
       </c>
       <c r="F1958">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1958">
-        <v>0.02397112990062377</v>
+        <v>0.02358940506577657</v>
       </c>
       <c r="H1958">
-        <v>0.02327228470459882</v>
+        <v>0.02329399666208522</v>
       </c>
       <c r="I1958">
-        <v>0.2988451960249492</v>
+        <v>-0.05540840369134159</v>
       </c>
       <c r="J1958">
-        <v>2.625501031710268</v>
+        <v>2.923473394855686</v>
       </c>
       <c r="K1958">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1958">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1958">
-        <v>4.56</v>
+        <v>4.26</v>
       </c>
       <c r="N1958">
-        <v>11.3</v>
+        <v>10.84</v>
       </c>
       <c r="O1958">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1958" t="s">
-        <v>609</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1959" spans="1:16">
       <c r="A1959" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1959" t="s">
         <v>366</v>
       </c>
       <c r="C1959">
-        <v>-0.382164456988356</v>
+        <v>-0.9711299006237706</v>
       </c>
       <c r="D1959" t="s">
         <v>615</v>
       </c>
       <c r="E1959">
-        <v>-0.4146744776225599</v>
+        <v>-0.6722847045988214</v>
       </c>
       <c r="F1959">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1959">
-        <v>0.02230216445698836</v>
+        <v>0.02397112990062377</v>
       </c>
       <c r="H1959">
-        <v>0.02237467447762256</v>
+        <v>0.02327228470459882</v>
       </c>
       <c r="I1959">
-        <v>0.03251002063420394</v>
+        <v>0.2988451960249492</v>
       </c>
       <c r="J1959">
         <v>2.625501031710268</v>
       </c>
       <c r="K1959">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="L1959">
-        <v>10.96</v>
+        <v>11.5</v>
       </c>
       <c r="M1959">
-        <v>4.34</v>
+        <v>4.56</v>
       </c>
       <c r="N1959">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="O1959">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1959" t="s">
         <v>609</v>
@@ -99583,66 +99580,66 @@
     </row>
     <row r="1960" spans="1:16">
       <c r="A1960" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1960" t="s">
         <v>365</v>
       </c>
       <c r="C1960">
-        <v>0.1722390805860297</v>
+        <v>-0.382164456988356</v>
       </c>
       <c r="D1960" t="s">
-        <v>614</v>
+        <v>369</v>
       </c>
       <c r="E1960">
-        <v>0.4253495173625872</v>
+        <v>-0.3446343950857393</v>
       </c>
       <c r="F1960">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1960">
-        <v>0.02282776091941397</v>
+        <v>0.02230216445698836</v>
       </c>
       <c r="H1960">
-        <v>0.02217465048263741</v>
+        <v>0.02202463439508574</v>
       </c>
       <c r="I1960">
-        <v>0.2531104367765575</v>
+        <v>-0.03753006190261665</v>
       </c>
       <c r="J1960">
-        <v>2.384791772508204</v>
+        <v>2.625501031710268</v>
       </c>
       <c r="K1960">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1960">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1960">
-        <v>4.56</v>
+        <v>4.26</v>
       </c>
       <c r="N1960">
-        <v>11.3</v>
+        <v>10.84</v>
       </c>
       <c r="O1960">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1960" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="1961" spans="1:16">
       <c r="A1961" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1961" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1961">
-        <v>0.2099578464622596</v>
+        <v>0.1722390805860297</v>
       </c>
       <c r="D1961" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1961">
         <v>0.4253495173625872</v>
@@ -99651,22 +99648,22 @@
         <v>1</v>
       </c>
       <c r="G1961">
-        <v>0.02215004215353774</v>
+        <v>0.02282776091941397</v>
       </c>
       <c r="H1961">
         <v>0.02217465048263741</v>
       </c>
       <c r="I1961">
-        <v>0.2153916709003276</v>
+        <v>0.2531104367765575</v>
       </c>
       <c r="J1961">
         <v>2.384791772508204</v>
       </c>
       <c r="K1961">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="L1961">
-        <v>11.18</v>
+        <v>11.5</v>
       </c>
       <c r="M1961">
         <v>4.56</v>
@@ -99683,49 +99680,49 @@
     </row>
     <row r="1962" spans="1:16">
       <c r="A1962" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1962" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1962">
-        <v>0.6576995427645578</v>
+        <v>0.2099578464622596</v>
       </c>
       <c r="D1962" t="s">
         <v>615</v>
       </c>
       <c r="E1962">
-        <v>0.630003707314394</v>
+        <v>0.4253495173625872</v>
       </c>
       <c r="F1962">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1962">
-        <v>0.02126230045723545</v>
+        <v>0.02215004215353774</v>
       </c>
       <c r="H1962">
-        <v>0.02132999629268561</v>
+        <v>0.02217465048263741</v>
       </c>
       <c r="I1962">
-        <v>0.02769583545016374</v>
+        <v>0.2153916709003276</v>
       </c>
       <c r="J1962">
         <v>2.384791772508204</v>
       </c>
       <c r="K1962">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="L1962">
-        <v>10.96</v>
+        <v>11.18</v>
       </c>
       <c r="M1962">
-        <v>4.34</v>
+        <v>4.56</v>
       </c>
       <c r="N1962">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="O1962">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1962" t="s">
         <v>610</v>
@@ -99733,66 +99730,66 @@
     </row>
     <row r="1963" spans="1:16">
       <c r="A1963" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1963" t="s">
         <v>365</v>
       </c>
       <c r="C1963">
-        <v>1.137917571557544</v>
+        <v>0.6576995427645578</v>
       </c>
       <c r="D1963" t="s">
-        <v>614</v>
+        <v>369</v>
       </c>
       <c r="E1963">
-        <v>1.352400868695243</v>
+        <v>0.6807870491150503</v>
       </c>
       <c r="F1963">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1963">
-        <v>0.02186208242844246</v>
+        <v>0.02126230045723545</v>
       </c>
       <c r="H1963">
-        <v>0.02124759913130476</v>
+        <v>0.02099921295088495</v>
       </c>
       <c r="I1963">
-        <v>0.2144832971376989</v>
+        <v>-0.0230875063504925</v>
       </c>
       <c r="J1963">
-        <v>2.181491037566833</v>
+        <v>2.384791772508204</v>
       </c>
       <c r="K1963">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1963">
-        <v>11.5</v>
+        <v>10.96</v>
       </c>
       <c r="M1963">
-        <v>4.56</v>
+        <v>4.26</v>
       </c>
       <c r="N1963">
-        <v>11.3</v>
+        <v>10.84</v>
       </c>
       <c r="O1963">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1963" t="s">
-        <v>357</v>
+        <v>610</v>
       </c>
     </row>
     <row r="1964" spans="1:16">
       <c r="A1964" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1964" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1964">
-        <v>1.145141227192571</v>
+        <v>1.137917571557544</v>
       </c>
       <c r="D1964" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1964">
         <v>1.352400868695243</v>
@@ -99801,22 +99798,22 @@
         <v>1</v>
       </c>
       <c r="G1964">
-        <v>0.02121485877280743</v>
+        <v>0.02186208242844246</v>
       </c>
       <c r="H1964">
         <v>0.02124759913130476</v>
       </c>
       <c r="I1964">
-        <v>0.207259641502672</v>
+        <v>0.2144832971376989</v>
       </c>
       <c r="J1964">
         <v>2.181491037566833</v>
       </c>
       <c r="K1964">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="L1964">
-        <v>11.18</v>
+        <v>11.5</v>
       </c>
       <c r="M1964">
         <v>4.56</v>
@@ -99833,46 +99830,46 @@
     </row>
     <row r="1965" spans="1:16">
       <c r="A1965" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1965" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1965">
-        <v>1.06692015170059</v>
+        <v>1.145141227192571</v>
       </c>
       <c r="D1965" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E1965">
-        <v>1.65047800071663</v>
+        <v>1.352400868695243</v>
       </c>
       <c r="F1965">
         <v>1</v>
       </c>
       <c r="G1965">
-        <v>0.02061307984829941</v>
+        <v>0.02121485877280743</v>
       </c>
       <c r="H1965">
-        <v>0.02014952199928337</v>
+        <v>0.02124759913130476</v>
       </c>
       <c r="I1965">
-        <v>0.5835578490160405</v>
+        <v>0.207259641502672</v>
       </c>
       <c r="J1965">
         <v>2.181491037566833</v>
       </c>
       <c r="K1965">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="L1965">
-        <v>10.84</v>
+        <v>11.18</v>
       </c>
       <c r="M1965">
-        <v>4.24</v>
+        <v>4.56</v>
       </c>
       <c r="N1965">
-        <v>10.9</v>
+        <v>11.3</v>
       </c>
       <c r="O1965">
         <v>1</v>
@@ -99883,49 +99880,49 @@
     </row>
     <row r="1966" spans="1:16">
       <c r="A1966" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1966" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1966">
-        <v>1.535958717711283</v>
+        <v>1.06692015170059</v>
       </c>
       <c r="D1966" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E1966">
-        <v>1.512328896959946</v>
+        <v>1.65047800071663</v>
       </c>
       <c r="F1966">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1966">
-        <v>0.02038404128228872</v>
+        <v>0.02061307984829941</v>
       </c>
       <c r="H1966">
-        <v>0.02044767110304006</v>
+        <v>0.02014952199928337</v>
       </c>
       <c r="I1966">
-        <v>0.02362982075133679</v>
+        <v>0.5835578490160405</v>
       </c>
       <c r="J1966">
         <v>2.181491037566833</v>
       </c>
       <c r="K1966">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1966">
-        <v>10.96</v>
+        <v>10.84</v>
       </c>
       <c r="M1966">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="N1966">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="O1966">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1966" t="s">
         <v>357</v>
@@ -99933,440 +99930,356 @@
     </row>
     <row r="1967" spans="1:16">
       <c r="A1967" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1967" t="s">
         <v>365</v>
       </c>
       <c r="C1967">
-        <v>1.243880896429898</v>
-      </c>
-      <c r="D1967" t="s">
-        <v>614</v>
-      </c>
-      <c r="E1967">
-        <v>1.454125660572702</v>
+        <v>1.535958717711283</v>
       </c>
       <c r="F1967">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1967">
-        <v>0.0217561191035701</v>
-      </c>
-      <c r="H1967">
-        <v>0.0211458743394273</v>
-      </c>
-      <c r="I1967">
-        <v>0.2102447641428036</v>
+        <v>0.02038404128228872</v>
       </c>
       <c r="J1967">
-        <v>2.159182969172653</v>
+        <v>2.181491037566833</v>
       </c>
       <c r="K1967">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="L1967">
-        <v>11.5</v>
-      </c>
-      <c r="M1967">
-        <v>4.56</v>
-      </c>
-      <c r="N1967">
-        <v>11.3</v>
-      </c>
-      <c r="O1967">
-        <v>1</v>
+        <v>10.96</v>
       </c>
       <c r="P1967" t="s">
-        <v>796</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1968" spans="1:16">
       <c r="A1968" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1968" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C1968">
-        <v>1.247758341805795</v>
-      </c>
-      <c r="D1968" t="s">
-        <v>614</v>
-      </c>
-      <c r="E1968">
-        <v>1.454125660572702</v>
+        <v>1.546848179965293</v>
       </c>
       <c r="F1968">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1968">
-        <v>0.0211122416581942</v>
-      </c>
-      <c r="H1968">
-        <v>0.0211458743394273</v>
-      </c>
-      <c r="I1968">
-        <v>0.2063673187669064</v>
+        <v>0.02013315182003471</v>
       </c>
       <c r="J1968">
-        <v>2.159182969172653</v>
+        <v>2.181491037566833</v>
       </c>
       <c r="K1968">
-        <v>4.6</v>
+        <v>4.26</v>
       </c>
       <c r="L1968">
-        <v>11.18</v>
-      </c>
-      <c r="M1968">
-        <v>4.56</v>
-      </c>
-      <c r="N1968">
-        <v>11.3</v>
-      </c>
-      <c r="O1968">
-        <v>1</v>
+        <v>10.84</v>
       </c>
       <c r="P1968" t="s">
-        <v>796</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1969" spans="1:16">
       <c r="A1969" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1969" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C1969">
-        <v>1.166860298106513</v>
+        <v>1.243880896429898</v>
       </c>
       <c r="D1969" t="s">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="E1969">
-        <v>1.74506421070795</v>
+        <v>1.510942001189248</v>
       </c>
       <c r="F1969">
         <v>1</v>
       </c>
       <c r="G1969">
-        <v>0.02051313970189349</v>
+        <v>0.0217561191035701</v>
       </c>
       <c r="H1969">
-        <v>0.02005493578929205</v>
+        <v>0.02128905799881076</v>
       </c>
       <c r="I1969">
-        <v>0.5782039126014364</v>
+        <v>0.2670611047593496</v>
       </c>
       <c r="J1969">
         <v>2.159182969172653</v>
       </c>
       <c r="K1969">
-        <v>4.48</v>
+        <v>4.75</v>
       </c>
       <c r="L1969">
-        <v>10.84</v>
+        <v>11.5</v>
       </c>
       <c r="M1969">
-        <v>4.24</v>
+        <v>4.58</v>
       </c>
       <c r="N1969">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="O1969">
         <v>1</v>
       </c>
       <c r="P1969" t="s">
-        <v>796</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1970" spans="1:16">
       <c r="A1970" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1970" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C1970">
-        <v>1.632329573174138</v>
+        <v>1.247758341805795</v>
       </c>
       <c r="D1970" t="s">
-        <v>615</v>
+        <v>361</v>
       </c>
       <c r="E1970">
-        <v>1.609145913790686</v>
+        <v>1.510942001189248</v>
       </c>
       <c r="F1970">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1970">
-        <v>0.02028767042682586</v>
+        <v>0.0211122416581942</v>
       </c>
       <c r="H1970">
-        <v>0.02035085408620932</v>
+        <v>0.02128905799881076</v>
       </c>
       <c r="I1970">
-        <v>0.02318365938345224</v>
+        <v>0.2631836593834525</v>
       </c>
       <c r="J1970">
         <v>2.159182969172653</v>
       </c>
       <c r="K1970">
-        <v>4.32</v>
+        <v>4.6</v>
       </c>
       <c r="L1970">
-        <v>10.96</v>
+        <v>11.18</v>
       </c>
       <c r="M1970">
-        <v>4.34</v>
+        <v>4.58</v>
       </c>
       <c r="N1970">
-        <v>10.98</v>
+        <v>11.4</v>
       </c>
       <c r="O1970">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1970" t="s">
-        <v>796</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1971" spans="1:16">
       <c r="A1971" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1971" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C1971">
-        <v>0.8761599758225351</v>
+        <v>1.166860298106513</v>
       </c>
       <c r="D1971" t="s">
+        <v>616</v>
+      </c>
+      <c r="E1971">
+        <v>1.74506421070795</v>
+      </c>
+      <c r="F1971">
+        <v>1</v>
+      </c>
+      <c r="G1971">
+        <v>0.02051313970189349</v>
+      </c>
+      <c r="H1971">
+        <v>0.02005493578929205</v>
+      </c>
+      <c r="I1971">
+        <v>0.5782039126014364</v>
+      </c>
+      <c r="J1971">
+        <v>2.159182969172653</v>
+      </c>
+      <c r="K1971">
+        <v>4.48</v>
+      </c>
+      <c r="L1971">
+        <v>10.84</v>
+      </c>
+      <c r="M1971">
+        <v>4.24</v>
+      </c>
+      <c r="N1971">
+        <v>10.9</v>
+      </c>
+      <c r="O1971">
+        <v>1</v>
+      </c>
+      <c r="P1971" t="s">
         <v>614</v>
-      </c>
-      <c r="E1971">
-        <v>1.101113576789635</v>
-      </c>
-      <c r="F1971">
-        <v>1</v>
-      </c>
-      <c r="G1971">
-        <v>0.02212384002417746</v>
-      </c>
-      <c r="H1971">
-        <v>0.02149888642321036</v>
-      </c>
-      <c r="I1971">
-        <v>0.2249536009670994</v>
-      </c>
-      <c r="J1971">
-        <v>2.236597899826835</v>
-      </c>
-      <c r="K1971">
-        <v>4.75</v>
-      </c>
-      <c r="L1971">
-        <v>11.5</v>
-      </c>
-      <c r="M1971">
-        <v>4.56</v>
-      </c>
-      <c r="N1971">
-        <v>11.3</v>
-      </c>
-      <c r="O1971">
-        <v>1</v>
-      </c>
-      <c r="P1971" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="1972" spans="1:16">
       <c r="A1972" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1972" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C1972">
-        <v>0.8916496607965616</v>
-      </c>
-      <c r="D1972" t="s">
+        <v>1.632329573174138</v>
+      </c>
+      <c r="F1972">
+        <v>-1</v>
+      </c>
+      <c r="G1972">
+        <v>0.02028767042682586</v>
+      </c>
+      <c r="J1972">
+        <v>2.159182969172653</v>
+      </c>
+      <c r="K1972">
+        <v>4.32</v>
+      </c>
+      <c r="L1972">
+        <v>10.96</v>
+      </c>
+      <c r="P1972" t="s">
         <v>614</v>
-      </c>
-      <c r="E1972">
-        <v>1.101113576789635</v>
-      </c>
-      <c r="F1972">
-        <v>1</v>
-      </c>
-      <c r="G1972">
-        <v>0.02146835033920344</v>
-      </c>
-      <c r="H1972">
-        <v>0.02149888642321036</v>
-      </c>
-      <c r="I1972">
-        <v>0.2094639159930729</v>
-      </c>
-      <c r="J1972">
-        <v>2.236597899826835</v>
-      </c>
-      <c r="K1972">
-        <v>4.6</v>
-      </c>
-      <c r="L1972">
-        <v>11.18</v>
-      </c>
-      <c r="M1972">
-        <v>4.56</v>
-      </c>
-      <c r="N1972">
-        <v>11.3</v>
-      </c>
-      <c r="O1972">
-        <v>1</v>
-      </c>
-      <c r="P1972" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="1973" spans="1:16">
       <c r="A1973" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1973" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1973">
-        <v>0.820041408775781</v>
-      </c>
-      <c r="D1973" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1973">
-        <v>1.416824904734222</v>
+        <v>1.641880551324498</v>
       </c>
       <c r="F1973">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1973">
-        <v>0.02085995859122422</v>
-      </c>
-      <c r="H1973">
-        <v>0.02038317509526578</v>
-      </c>
-      <c r="I1973">
-        <v>0.5967834959584408</v>
+        <v>0.0200381194486755</v>
       </c>
       <c r="J1973">
-        <v>2.236597899826835</v>
+        <v>2.159182969172653</v>
       </c>
       <c r="K1973">
-        <v>4.48</v>
+        <v>4.26</v>
       </c>
       <c r="L1973">
         <v>10.84</v>
       </c>
-      <c r="M1973">
-        <v>4.24</v>
-      </c>
-      <c r="N1973">
-        <v>10.9</v>
-      </c>
-      <c r="O1973">
-        <v>1</v>
-      </c>
       <c r="P1973" t="s">
-        <v>797</v>
+        <v>614</v>
       </c>
     </row>
     <row r="1974" spans="1:16">
       <c r="A1974" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1974" t="s">
         <v>366</v>
       </c>
       <c r="C1974">
-        <v>1.297897072748075</v>
+        <v>0.8761599758225351</v>
       </c>
       <c r="D1974" t="s">
         <v>615</v>
       </c>
       <c r="E1974">
-        <v>1.273165114751539</v>
+        <v>1.101113576789635</v>
       </c>
       <c r="F1974">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1974">
-        <v>0.02062210292725193</v>
+        <v>0.02212384002417746</v>
       </c>
       <c r="H1974">
-        <v>0.02068683488524846</v>
+        <v>0.02149888642321036</v>
       </c>
       <c r="I1974">
-        <v>0.02473195799653638</v>
+        <v>0.2249536009670994</v>
       </c>
       <c r="J1974">
         <v>2.236597899826835</v>
       </c>
       <c r="K1974">
-        <v>4.32</v>
+        <v>4.75</v>
       </c>
       <c r="L1974">
-        <v>10.96</v>
+        <v>11.5</v>
       </c>
       <c r="M1974">
-        <v>4.34</v>
+        <v>4.56</v>
       </c>
       <c r="N1974">
-        <v>10.98</v>
+        <v>11.3</v>
       </c>
       <c r="O1974">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1974" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1975" spans="1:16">
       <c r="A1975" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1975" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C1975">
-        <v>0.9514043421892833</v>
+        <v>0.8916496607965616</v>
       </c>
       <c r="D1975" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E1975">
-        <v>1.173348168501711</v>
+        <v>1.101113576789635</v>
       </c>
       <c r="F1975">
         <v>1</v>
       </c>
       <c r="G1975">
-        <v>0.02204859565781072</v>
+        <v>0.02146835033920344</v>
       </c>
       <c r="H1975">
-        <v>0.02142665183149829</v>
+        <v>0.02149888642321036</v>
       </c>
       <c r="I1975">
-        <v>0.2219438263124278</v>
+        <v>0.2094639159930729</v>
       </c>
       <c r="J1975">
-        <v>2.22075698059173</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1975">
-        <v>4.75</v>
+        <v>4.6</v>
       </c>
       <c r="L1975">
-        <v>11.5</v>
+        <v>11.18</v>
       </c>
       <c r="M1975">
         <v>4.56</v>
@@ -100378,157 +100291,115 @@
         <v>1</v>
       </c>
       <c r="P1975" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1976" spans="1:16">
       <c r="A1976" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1976" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C1976">
-        <v>0.9645178892780439</v>
+        <v>0.820041408775781</v>
       </c>
       <c r="D1976" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E1976">
-        <v>1.173348168501711</v>
+        <v>1.416824904734222</v>
       </c>
       <c r="F1976">
         <v>1</v>
       </c>
       <c r="G1976">
-        <v>0.02139548211072196</v>
+        <v>0.02085995859122422</v>
       </c>
       <c r="H1976">
-        <v>0.02142665183149829</v>
+        <v>0.02038317509526578</v>
       </c>
       <c r="I1976">
-        <v>0.2088302792236671</v>
+        <v>0.5967834959584408</v>
       </c>
       <c r="J1976">
-        <v>2.22075698059173</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1976">
-        <v>4.6</v>
+        <v>4.48</v>
       </c>
       <c r="L1976">
-        <v>11.18</v>
+        <v>10.84</v>
       </c>
       <c r="M1976">
-        <v>4.56</v>
+        <v>4.24</v>
       </c>
       <c r="N1976">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="O1976">
         <v>1</v>
       </c>
       <c r="P1976" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1977" spans="1:16">
       <c r="A1977" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1977" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C1977">
-        <v>0.8910087269490496</v>
-      </c>
-      <c r="D1977" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1977">
-        <v>1.483990402291065</v>
+        <v>1.297897072748075</v>
       </c>
       <c r="F1977">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1977">
-        <v>0.02078899127305095</v>
-      </c>
-      <c r="H1977">
-        <v>0.02031600959770893</v>
-      </c>
-      <c r="I1977">
-        <v>0.5929816753420152</v>
+        <v>0.02062210292725193</v>
       </c>
       <c r="J1977">
-        <v>2.22075698059173</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1977">
-        <v>4.48</v>
+        <v>4.32</v>
       </c>
       <c r="L1977">
-        <v>10.84</v>
-      </c>
-      <c r="M1977">
-        <v>4.24</v>
-      </c>
-      <c r="N1977">
-        <v>10.9</v>
-      </c>
-      <c r="O1977">
-        <v>1</v>
+        <v>10.96</v>
       </c>
       <c r="P1977" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1978" spans="1:16">
       <c r="A1978" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1978" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C1978">
-        <v>1.366329843843728</v>
-      </c>
-      <c r="D1978" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1978">
-        <v>1.341914704231893</v>
+        <v>1.312092946737685</v>
       </c>
       <c r="F1978">
         <v>-1</v>
       </c>
       <c r="G1978">
-        <v>0.02055367015615627</v>
-      </c>
-      <c r="H1978">
-        <v>0.02061808529576811</v>
-      </c>
-      <c r="I1978">
-        <v>0.02441513961183439</v>
+        <v>0.02036790705326232</v>
       </c>
       <c r="J1978">
-        <v>2.22075698059173</v>
+        <v>2.236597899826835</v>
       </c>
       <c r="K1978">
-        <v>4.32</v>
+        <v>4.26</v>
       </c>
       <c r="L1978">
-        <v>10.96</v>
-      </c>
-      <c r="M1978">
-        <v>4.34</v>
-      </c>
-      <c r="N1978">
-        <v>10.98</v>
-      </c>
-      <c r="O1978">
-        <v>0</v>
+        <v>10.84</v>
       </c>
       <c r="P1978" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="1979" spans="1:16">
@@ -100536,49 +100407,49 @@
         <v>0</v>
       </c>
       <c r="B1979" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C1979">
-        <v>1.196522393631316</v>
+        <v>0.9514043421892833</v>
       </c>
       <c r="D1979" t="s">
-        <v>614</v>
+        <v>361</v>
       </c>
       <c r="E1979">
-        <v>1.403335242382347</v>
+        <v>1.228933028889879</v>
       </c>
       <c r="F1979">
         <v>1</v>
       </c>
       <c r="G1979">
-        <v>0.02116347760636868</v>
+        <v>0.02204859565781072</v>
       </c>
       <c r="H1979">
-        <v>0.02119666475761765</v>
+        <v>0.02157106697111012</v>
       </c>
       <c r="I1979">
-        <v>0.2068128487510315</v>
+        <v>0.2775286867005953</v>
       </c>
       <c r="J1979">
-        <v>2.170321218775801</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1979">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="L1979">
-        <v>11.18</v>
+        <v>11.5</v>
       </c>
       <c r="M1979">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="N1979">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="O1979">
         <v>1</v>
       </c>
       <c r="P1979" t="s">
-        <v>365</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1980" spans="1:16">
@@ -100586,49 +100457,49 @@
         <v>1</v>
       </c>
       <c r="B1980" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1980">
-        <v>1.116960939884411</v>
+        <v>0.9645178892780439</v>
       </c>
       <c r="D1980" t="s">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="E1980">
-        <v>1.697838032390603</v>
+        <v>1.228933028889879</v>
       </c>
       <c r="F1980">
         <v>1</v>
       </c>
       <c r="G1980">
-        <v>0.02056303906011559</v>
+        <v>0.02139548211072196</v>
       </c>
       <c r="H1980">
-        <v>0.0201021619676094</v>
+        <v>0.02157106697111012</v>
       </c>
       <c r="I1980">
-        <v>0.5808770925061921</v>
+        <v>0.2644151396118346</v>
       </c>
       <c r="J1980">
-        <v>2.170321218775801</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1980">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="L1980">
-        <v>10.84</v>
+        <v>11.18</v>
       </c>
       <c r="M1980">
-        <v>4.24</v>
+        <v>4.58</v>
       </c>
       <c r="N1980">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="O1980">
         <v>1</v>
       </c>
       <c r="P1980" t="s">
-        <v>365</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1981" spans="1:16">
@@ -100636,399 +100507,294 @@
         <v>2</v>
       </c>
       <c r="B1981" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1981">
-        <v>1.584212334888541</v>
+        <v>0.8910087269490496</v>
       </c>
       <c r="D1981" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E1981">
-        <v>1.560805910513025</v>
+        <v>1.483990402291065</v>
       </c>
       <c r="F1981">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1981">
-        <v>0.02033578766511146</v>
+        <v>0.02078899127305095</v>
       </c>
       <c r="H1981">
-        <v>0.02039919408948698</v>
+        <v>0.02031600959770893</v>
       </c>
       <c r="I1981">
-        <v>0.02340642437551566</v>
+        <v>0.5929816753420152</v>
       </c>
       <c r="J1981">
-        <v>2.170321218775801</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1981">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1981">
-        <v>10.96</v>
+        <v>10.84</v>
       </c>
       <c r="M1981">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="N1981">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="O1981">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1981" t="s">
-        <v>365</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1982" spans="1:16">
       <c r="A1982" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1982" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C1982">
-        <v>1.448533583035836</v>
-      </c>
-      <c r="D1982" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1982">
-        <v>1.710844306587855</v>
+        <v>1.366329843843728</v>
       </c>
       <c r="F1982">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1982">
-        <v>0.02091146641696416</v>
-      </c>
-      <c r="H1982">
-        <v>0.02108915569341215</v>
-      </c>
-      <c r="I1982">
-        <v>0.2623107235520195</v>
+        <v>0.02055367015615627</v>
       </c>
       <c r="J1982">
-        <v>2.115536177600905</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1982">
-        <v>4.6</v>
+        <v>4.32</v>
       </c>
       <c r="L1982">
-        <v>11.18</v>
-      </c>
-      <c r="M1982">
-        <v>4.58</v>
-      </c>
-      <c r="N1982">
-        <v>11.4</v>
-      </c>
-      <c r="O1982">
-        <v>1</v>
+        <v>10.96</v>
       </c>
       <c r="P1982" t="s">
-        <v>364</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1983" spans="1:16">
       <c r="A1983" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1983" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1983">
-        <v>1.362397924347944</v>
-      </c>
-      <c r="D1983" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1983">
-        <v>1.930126606972163</v>
+        <v>1.379575262679232</v>
       </c>
       <c r="F1983">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1983">
-        <v>0.02031760207565205</v>
-      </c>
-      <c r="H1983">
-        <v>0.01986987339302784</v>
-      </c>
-      <c r="I1983">
-        <v>0.5677286826242192</v>
+        <v>0.02030042473732077</v>
       </c>
       <c r="J1983">
-        <v>2.115536177600905</v>
+        <v>2.22075698059173</v>
       </c>
       <c r="K1983">
-        <v>4.48</v>
+        <v>4.26</v>
       </c>
       <c r="L1983">
         <v>10.84</v>
       </c>
-      <c r="M1983">
-        <v>4.24</v>
-      </c>
-      <c r="N1983">
-        <v>10.9</v>
-      </c>
-      <c r="O1983">
-        <v>1</v>
-      </c>
       <c r="P1983" t="s">
-        <v>364</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1984" spans="1:16">
       <c r="A1984" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1984" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C1984">
-        <v>1.867815883420144</v>
+        <v>1.196522393631316</v>
       </c>
       <c r="D1984" t="s">
-        <v>615</v>
+        <v>361</v>
       </c>
       <c r="E1984">
-        <v>1.798572989212072</v>
+        <v>1.459928818006832</v>
       </c>
       <c r="F1984">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1984">
-        <v>0.01989218411657986</v>
+        <v>0.02116347760636868</v>
       </c>
       <c r="H1984">
-        <v>0.02016142701078793</v>
+        <v>0.02134007118199317</v>
       </c>
       <c r="I1984">
-        <v>0.06924289420807206</v>
+        <v>0.2634064243755159</v>
       </c>
       <c r="J1984">
-        <v>2.115536177600905</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1984">
-        <v>4.26</v>
+        <v>4.6</v>
       </c>
       <c r="L1984">
-        <v>10.88</v>
+        <v>11.18</v>
       </c>
       <c r="M1984">
-        <v>4.34</v>
+        <v>4.58</v>
       </c>
       <c r="N1984">
-        <v>10.98</v>
+        <v>11.4</v>
       </c>
       <c r="O1984">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1984" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1985" spans="1:16">
       <c r="A1985" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1985" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C1985">
-        <v>1.087860498164448</v>
+        <v>1.116960939884411</v>
       </c>
       <c r="D1985" t="s">
-        <v>361</v>
+        <v>616</v>
       </c>
       <c r="E1985">
-        <v>1.306210081711599</v>
+        <v>1.697838032390603</v>
       </c>
       <c r="F1985">
         <v>1</v>
       </c>
       <c r="G1985">
-        <v>0.02167213950183555</v>
+        <v>0.02056303906011559</v>
       </c>
       <c r="H1985">
-        <v>0.0214937899182884</v>
+        <v>0.0201021619676094</v>
       </c>
       <c r="I1985">
-        <v>0.2183495835471518</v>
+        <v>0.5808770925061921</v>
       </c>
       <c r="J1985">
-        <v>2.203884261635022</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1985">
-        <v>4.67</v>
+        <v>4.48</v>
       </c>
       <c r="L1985">
-        <v>11.38</v>
+        <v>10.84</v>
       </c>
       <c r="M1985">
-        <v>4.58</v>
+        <v>4.24</v>
       </c>
       <c r="N1985">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="O1985">
         <v>1</v>
       </c>
       <c r="P1985" t="s">
-        <v>799</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1986" spans="1:16">
       <c r="A1986" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1986" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C1986">
-        <v>0.9665985078750996</v>
-      </c>
-      <c r="D1986" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1986">
-        <v>1.555530730667506</v>
+        <v>1.584212334888541</v>
       </c>
       <c r="F1986">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1986">
-        <v>0.0207134014921249</v>
-      </c>
-      <c r="H1986">
-        <v>0.02024446926933249</v>
-      </c>
-      <c r="I1986">
-        <v>0.5889322227924065</v>
+        <v>0.02033578766511146</v>
       </c>
       <c r="J1986">
-        <v>2.203884261635022</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1986">
-        <v>4.48</v>
+        <v>4.32</v>
       </c>
       <c r="L1986">
-        <v>10.84</v>
-      </c>
-      <c r="M1986">
-        <v>4.24</v>
-      </c>
-      <c r="N1986">
-        <v>10.9</v>
-      </c>
-      <c r="O1986">
-        <v>1</v>
+        <v>10.96</v>
       </c>
       <c r="P1986" t="s">
-        <v>799</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1987" spans="1:16">
       <c r="A1987" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1987" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C1987">
-        <v>1.439219989736705</v>
-      </c>
-      <c r="D1987" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1987">
-        <v>1.415142304504005</v>
+        <v>1.634431608015088</v>
       </c>
       <c r="F1987">
         <v>-1</v>
       </c>
       <c r="G1987">
-        <v>0.02048078001026329</v>
-      </c>
-      <c r="H1987">
-        <v>0.020544857695496</v>
-      </c>
-      <c r="I1987">
-        <v>0.02407768523269915</v>
+        <v>0.02012556839198491</v>
       </c>
       <c r="J1987">
-        <v>2.203884261635022</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1987">
-        <v>4.32</v>
+        <v>4.26</v>
       </c>
       <c r="L1987">
-        <v>10.96</v>
-      </c>
-      <c r="M1987">
-        <v>4.34</v>
-      </c>
-      <c r="N1987">
-        <v>10.98</v>
-      </c>
-      <c r="O1987">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="P1987" t="s">
-        <v>799</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1988" spans="1:16">
       <c r="A1988" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1988" t="s">
         <v>369</v>
       </c>
       <c r="C1988">
-        <v>1.491453045434808</v>
-      </c>
-      <c r="D1988" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1988">
-        <v>1.415142304504005</v>
+        <v>1.594431608015087</v>
       </c>
       <c r="F1988">
         <v>-1</v>
       </c>
       <c r="G1988">
-        <v>0.0202685469545652</v>
-      </c>
-      <c r="H1988">
-        <v>0.020544857695496</v>
-      </c>
-      <c r="I1988">
-        <v>0.07631074093080237</v>
+        <v>0.02008556839198491</v>
       </c>
       <c r="J1988">
-        <v>2.203884261635022</v>
+        <v>2.170321218775801</v>
       </c>
       <c r="K1988">
         <v>4.26</v>
       </c>
       <c r="L1988">
-        <v>10.88</v>
-      </c>
-      <c r="M1988">
-        <v>4.34</v>
-      </c>
-      <c r="N1988">
-        <v>10.98</v>
-      </c>
-      <c r="O1988">
-        <v>0</v>
+        <v>10.84</v>
       </c>
       <c r="P1988" t="s">
-        <v>799</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1989" spans="1:16">
@@ -101036,49 +100802,49 @@
         <v>0</v>
       </c>
       <c r="B1989" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C1989">
-        <v>0.6946588507397173</v>
+        <v>1.448533583035836</v>
       </c>
       <c r="D1989" t="s">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="E1989">
-        <v>1.298159269450091</v>
+        <v>1.710844306587855</v>
       </c>
       <c r="F1989">
         <v>1</v>
       </c>
       <c r="G1989">
-        <v>0.02098534114926028</v>
+        <v>0.02091146641696416</v>
       </c>
       <c r="H1989">
-        <v>0.02050184073054991</v>
+        <v>0.02108915569341215</v>
       </c>
       <c r="I1989">
-        <v>0.6035004187103734</v>
+        <v>0.2623107235520195</v>
       </c>
       <c r="J1989">
-        <v>2.264585077959884</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1989">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="L1989">
-        <v>10.84</v>
+        <v>11.18</v>
       </c>
       <c r="M1989">
-        <v>4.24</v>
+        <v>4.58</v>
       </c>
       <c r="N1989">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="O1989">
         <v>1</v>
       </c>
       <c r="P1989" t="s">
-        <v>800</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1990" spans="1:16">
@@ -101086,149 +100852,107 @@
         <v>1</v>
       </c>
       <c r="B1990" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C1990">
-        <v>1.176992463213301</v>
+        <v>1.362397924347944</v>
       </c>
       <c r="D1990" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E1990">
-        <v>1.151700761654103</v>
+        <v>1.930126606972163</v>
       </c>
       <c r="F1990">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1990">
-        <v>0.0207430075367867</v>
+        <v>0.02031760207565205</v>
       </c>
       <c r="H1990">
-        <v>0.0208082992383459</v>
+        <v>0.01986987339302784</v>
       </c>
       <c r="I1990">
-        <v>0.02529170155919758</v>
+        <v>0.5677286826242192</v>
       </c>
       <c r="J1990">
-        <v>2.264585077959884</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1990">
-        <v>4.32</v>
+        <v>4.48</v>
       </c>
       <c r="L1990">
-        <v>10.96</v>
+        <v>10.84</v>
       </c>
       <c r="M1990">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="N1990">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="O1990">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1990" t="s">
-        <v>800</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1991" spans="1:16">
       <c r="A1991" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1991" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C1991">
-        <v>0.4231220503168007</v>
-      </c>
-      <c r="D1991" t="s">
-        <v>616</v>
-      </c>
-      <c r="E1991">
-        <v>1.041169083335545</v>
+        <v>1.867815883420144</v>
       </c>
       <c r="F1991">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1991">
-        <v>0.0212568779496832</v>
-      </c>
-      <c r="H1991">
-        <v>0.02075883091666446</v>
-      </c>
-      <c r="I1991">
-        <v>0.618047033018744</v>
+        <v>0.01989218411657986</v>
       </c>
       <c r="J1991">
-        <v>2.325195970911428</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1991">
-        <v>4.48</v>
+        <v>4.26</v>
       </c>
       <c r="L1991">
-        <v>10.84</v>
-      </c>
-      <c r="M1991">
-        <v>4.24</v>
-      </c>
-      <c r="N1991">
-        <v>10.9</v>
-      </c>
-      <c r="O1991">
-        <v>1</v>
+        <v>10.88</v>
       </c>
       <c r="P1991" t="s">
-        <v>801</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1992" spans="1:16">
       <c r="A1992" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1992" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C1992">
-        <v>0.917917123626431</v>
-      </c>
-      <c r="D1992" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1992">
-        <v>0.8886494862444039</v>
+        <v>1.827815883420143</v>
       </c>
       <c r="F1992">
         <v>-1</v>
       </c>
       <c r="G1992">
-        <v>0.02068208287637357</v>
-      </c>
-      <c r="H1992">
-        <v>0.0210713505137556</v>
-      </c>
-      <c r="I1992">
-        <v>0.02926763738202709</v>
+        <v>0.01985218411657986</v>
       </c>
       <c r="J1992">
-        <v>2.325195970911428</v>
+        <v>2.115536177600905</v>
       </c>
       <c r="K1992">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="L1992">
-        <v>10.8</v>
-      </c>
-      <c r="M1992">
-        <v>4.34</v>
-      </c>
-      <c r="N1992">
-        <v>10.98</v>
-      </c>
-      <c r="O1992">
-        <v>0</v>
+        <v>10.84</v>
       </c>
       <c r="P1992" t="s">
-        <v>801</v>
+        <v>364</v>
       </c>
     </row>
     <row r="1993" spans="1:16">
@@ -101236,40 +100960,40 @@
         <v>0</v>
       </c>
       <c r="B1993" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C1993">
-        <v>0.2768744254458557</v>
+        <v>1.087860498164448</v>
       </c>
       <c r="D1993" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E1993">
-        <v>0.4925537782680642</v>
+        <v>1.306210081711599</v>
       </c>
       <c r="F1993">
         <v>1</v>
       </c>
       <c r="G1993">
-        <v>0.02228312557455414</v>
+        <v>0.02167213950183555</v>
       </c>
       <c r="H1993">
-        <v>0.02230744622173194</v>
+        <v>0.0214937899182884</v>
       </c>
       <c r="I1993">
-        <v>0.2156793528222085</v>
+        <v>0.2183495835471518</v>
       </c>
       <c r="J1993">
-        <v>2.391983820555249</v>
+        <v>2.203884261635022</v>
       </c>
       <c r="K1993">
-        <v>4.6</v>
+        <v>4.67</v>
       </c>
       <c r="L1993">
-        <v>11.28</v>
+        <v>11.38</v>
       </c>
       <c r="M1993">
-        <v>4.56</v>
+        <v>4.58</v>
       </c>
       <c r="N1993">
         <v>11.4</v>
@@ -101278,7 +101002,7 @@
         <v>1</v>
       </c>
       <c r="P1993" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1994" spans="1:16">
@@ -101289,28 +101013,28 @@
         <v>368</v>
       </c>
       <c r="C1994">
-        <v>0.1239124839124841</v>
+        <v>0.9665985078750996</v>
       </c>
       <c r="D1994" t="s">
         <v>616</v>
       </c>
       <c r="E1994">
-        <v>0.7579886008457439</v>
+        <v>1.555530730667506</v>
       </c>
       <c r="F1994">
         <v>1</v>
       </c>
       <c r="G1994">
-        <v>0.02155608751608751</v>
+        <v>0.0207134014921249</v>
       </c>
       <c r="H1994">
-        <v>0.02104201139915425</v>
+        <v>0.02024446926933249</v>
       </c>
       <c r="I1994">
-        <v>0.6340761169332598</v>
+        <v>0.5889322227924065</v>
       </c>
       <c r="J1994">
-        <v>2.391983820555249</v>
+        <v>2.203884261635022</v>
       </c>
       <c r="K1994">
         <v>4.48</v>
@@ -101328,7 +101052,7 @@
         <v>1</v>
       </c>
       <c r="P1994" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1995" spans="1:16">
@@ -101336,131 +101060,89 @@
         <v>2</v>
       </c>
       <c r="B1995" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1995">
-        <v>0.6340687626401937</v>
-      </c>
-      <c r="D1995" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1995">
-        <v>0.5987902187902208</v>
+        <v>1.491453045434808</v>
       </c>
       <c r="F1995">
         <v>-1</v>
       </c>
       <c r="G1995">
-        <v>0.02096593123735981</v>
-      </c>
-      <c r="H1995">
-        <v>0.02136120978120978</v>
-      </c>
-      <c r="I1995">
-        <v>0.03527854384997298</v>
+        <v>0.0202685469545652</v>
       </c>
       <c r="J1995">
-        <v>2.391983820555249</v>
+        <v>2.203884261635022</v>
       </c>
       <c r="K1995">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="L1995">
-        <v>10.8</v>
-      </c>
-      <c r="M1995">
-        <v>4.34</v>
-      </c>
-      <c r="N1995">
-        <v>10.98</v>
-      </c>
-      <c r="O1995">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="P1995" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1996" spans="1:16">
       <c r="A1996" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1996" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C1996">
-        <v>0.1945553716982218</v>
-      </c>
-      <c r="D1996" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1996">
-        <v>0.4109505423791049</v>
+        <v>1.451453045434807</v>
       </c>
       <c r="F1996">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1996">
-        <v>0.02236544462830178</v>
-      </c>
-      <c r="H1996">
-        <v>0.0223890494576209</v>
-      </c>
-      <c r="I1996">
-        <v>0.2163951706808831</v>
+        <v>0.02022854695456519</v>
       </c>
       <c r="J1996">
-        <v>2.409879267022126</v>
+        <v>2.203884261635022</v>
       </c>
       <c r="K1996">
-        <v>4.6</v>
+        <v>4.26</v>
       </c>
       <c r="L1996">
-        <v>11.28</v>
-      </c>
-      <c r="M1996">
-        <v>4.56</v>
-      </c>
-      <c r="N1996">
-        <v>11.4</v>
-      </c>
-      <c r="O1996">
-        <v>1</v>
+        <v>10.84</v>
       </c>
       <c r="P1996" t="s">
-        <v>370</v>
+        <v>798</v>
       </c>
     </row>
     <row r="1997" spans="1:16">
       <c r="A1997" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1997" t="s">
         <v>368</v>
       </c>
       <c r="C1997">
-        <v>0.0437408837408757</v>
+        <v>0.6946588507397173</v>
       </c>
       <c r="D1997" t="s">
         <v>616</v>
       </c>
       <c r="E1997">
-        <v>0.6821119078261866</v>
+        <v>1.298159269450091</v>
       </c>
       <c r="F1997">
         <v>1</v>
       </c>
       <c r="G1997">
-        <v>0.02163625911625913</v>
+        <v>0.02098534114926028</v>
       </c>
       <c r="H1997">
-        <v>0.02111788809217382</v>
+        <v>0.02050184073054991</v>
       </c>
       <c r="I1997">
-        <v>0.6383710240853109</v>
+        <v>0.6035004187103734</v>
       </c>
       <c r="J1997">
-        <v>2.409879267022126</v>
+        <v>2.264585077959884</v>
       </c>
       <c r="K1997">
         <v>4.48</v>
@@ -101478,139 +101160,97 @@
         <v>1</v>
       </c>
       <c r="P1997" t="s">
-        <v>370</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1998" spans="1:16">
       <c r="A1998" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1998" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C1998">
-        <v>0.5580131151559655</v>
-      </c>
-      <c r="D1998" t="s">
-        <v>615</v>
-      </c>
-      <c r="E1998">
-        <v>0.5211239811239743</v>
+        <v>1.232867567890894</v>
       </c>
       <c r="F1998">
         <v>-1</v>
       </c>
       <c r="G1998">
-        <v>0.02104198688484404</v>
-      </c>
-      <c r="H1998">
-        <v>0.02143887601887603</v>
-      </c>
-      <c r="I1998">
-        <v>0.03688913403199123</v>
+        <v>0.02052713243210911</v>
       </c>
       <c r="J1998">
-        <v>2.409879267022126</v>
+        <v>2.264585077959884</v>
       </c>
       <c r="K1998">
-        <v>4.25</v>
+        <v>4.26</v>
       </c>
       <c r="L1998">
-        <v>10.8</v>
-      </c>
-      <c r="M1998">
-        <v>4.34</v>
-      </c>
-      <c r="N1998">
-        <v>10.98</v>
-      </c>
-      <c r="O1998">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="P1998" t="s">
-        <v>370</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1999" spans="1:16">
       <c r="A1999" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1999" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C1999">
-        <v>-0.0197326876587649</v>
-      </c>
-      <c r="D1999" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1999">
-        <v>0.19852585745131</v>
+        <v>1.192867567890893</v>
       </c>
       <c r="F1999">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1999">
-        <v>0.02257973268765876</v>
-      </c>
-      <c r="H1999">
-        <v>0.02260147414254869</v>
-      </c>
-      <c r="I1999">
-        <v>0.2182585451100749</v>
+        <v>0.02048713243210911</v>
       </c>
       <c r="J1999">
-        <v>2.456463627751905</v>
+        <v>2.264585077959884</v>
       </c>
       <c r="K1999">
-        <v>4.6</v>
+        <v>4.26</v>
       </c>
       <c r="L1999">
-        <v>11.28</v>
-      </c>
-      <c r="M1999">
-        <v>4.56</v>
-      </c>
-      <c r="N1999">
-        <v>11.4</v>
-      </c>
-      <c r="O1999">
-        <v>1</v>
+        <v>10.84</v>
       </c>
       <c r="P1999" t="s">
-        <v>367</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2000" spans="1:16">
       <c r="A2000" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2000" t="s">
         <v>368</v>
       </c>
       <c r="C2000">
-        <v>-0.1649570523285373</v>
+        <v>0.4231220503168007</v>
       </c>
       <c r="D2000" t="s">
         <v>616</v>
       </c>
       <c r="E2000">
-        <v>0.484594218331921</v>
+        <v>1.041169083335545</v>
       </c>
       <c r="F2000">
         <v>1</v>
       </c>
       <c r="G2000">
-        <v>0.02184495705232854</v>
+        <v>0.0212568779496832</v>
       </c>
       <c r="H2000">
-        <v>0.02131540578166808</v>
+        <v>0.02075883091666446</v>
       </c>
       <c r="I2000">
-        <v>0.6495512706604583</v>
+        <v>0.618047033018744</v>
       </c>
       <c r="J2000">
-        <v>2.456463627751905</v>
+        <v>2.325195970911428</v>
       </c>
       <c r="K2000">
         <v>4.48</v>
@@ -101628,39 +101268,27 @@
         <v>1</v>
       </c>
       <c r="P2000" t="s">
-        <v>367</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2001" spans="1:16">
       <c r="A2001" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2001" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C2001">
-        <v>0.4154649457768844</v>
-      </c>
-      <c r="D2001" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2001">
-        <v>0.3189478555567309</v>
+        <v>0.9746651639173169</v>
       </c>
       <c r="F2001">
         <v>-1</v>
       </c>
       <c r="G2001">
-        <v>0.02134453505422312</v>
-      </c>
-      <c r="H2001">
-        <v>0.02164105214444327</v>
-      </c>
-      <c r="I2001">
-        <v>0.09651709022015353</v>
+        <v>0.02078533483608268</v>
       </c>
       <c r="J2001">
-        <v>2.456463627751905</v>
+        <v>2.325195970911428</v>
       </c>
       <c r="K2001">
         <v>4.26</v>
@@ -101668,149 +101296,119 @@
       <c r="L2001">
         <v>10.88</v>
       </c>
-      <c r="M2001">
-        <v>4.34</v>
-      </c>
-      <c r="N2001">
-        <v>10.98</v>
-      </c>
-      <c r="O2001">
-        <v>0</v>
-      </c>
       <c r="P2001" t="s">
-        <v>367</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2002" spans="1:16">
       <c r="A2002" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2002" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C2002">
-        <v>0.1487066885472412</v>
-      </c>
-      <c r="D2002" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2002">
-        <v>0.3655005434294392</v>
+        <v>0.934665163917316</v>
       </c>
       <c r="F2002">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2002">
-        <v>0.02241129331145276</v>
-      </c>
-      <c r="H2002">
-        <v>0.02243449945657056</v>
-      </c>
-      <c r="I2002">
-        <v>0.2167938548821979</v>
+        <v>0.02074533483608268</v>
       </c>
       <c r="J2002">
-        <v>2.419846372054947</v>
+        <v>2.325195970911428</v>
       </c>
       <c r="K2002">
-        <v>4.6</v>
+        <v>4.26</v>
       </c>
       <c r="L2002">
-        <v>11.28</v>
-      </c>
-      <c r="M2002">
-        <v>4.56</v>
-      </c>
-      <c r="N2002">
-        <v>11.4</v>
-      </c>
-      <c r="O2002">
-        <v>1</v>
+        <v>10.84</v>
       </c>
       <c r="P2002" t="s">
-        <v>614</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2003" spans="1:16">
       <c r="A2003" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2003" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2003">
-        <v>0.1961112973855936</v>
+        <v>0.2768744254458557</v>
       </c>
       <c r="D2003" t="s">
-        <v>616</v>
+        <v>360</v>
       </c>
       <c r="E2003">
-        <v>0.6398513824870218</v>
+        <v>0.4925537782680642</v>
       </c>
       <c r="F2003">
         <v>1</v>
       </c>
       <c r="G2003">
-        <v>0.02260388870261441</v>
+        <v>0.02228312557455414</v>
       </c>
       <c r="H2003">
-        <v>0.02116014861751298</v>
+        <v>0.02230744622173194</v>
       </c>
       <c r="I2003">
-        <v>0.4437400851014281</v>
+        <v>0.2156793528222085</v>
       </c>
       <c r="J2003">
-        <v>2.419846372054947</v>
+        <v>2.391983820555249</v>
       </c>
       <c r="K2003">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="L2003">
+        <v>11.28</v>
+      </c>
+      <c r="M2003">
+        <v>4.56</v>
+      </c>
+      <c r="N2003">
         <v>11.4</v>
       </c>
-      <c r="M2003">
-        <v>4.24</v>
-      </c>
-      <c r="N2003">
-        <v>10.9</v>
-      </c>
       <c r="O2003">
         <v>1</v>
       </c>
       <c r="P2003" t="s">
-        <v>614</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2004" spans="1:16">
       <c r="A2004" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2004" t="s">
         <v>368</v>
       </c>
       <c r="C2004">
-        <v>-0.0009117468061656808</v>
+        <v>0.1239124839124841</v>
       </c>
       <c r="D2004" t="s">
         <v>616</v>
       </c>
       <c r="E2004">
-        <v>0.6398513824870218</v>
+        <v>0.7579886008457439</v>
       </c>
       <c r="F2004">
         <v>1</v>
       </c>
       <c r="G2004">
-        <v>0.02168091174680617</v>
+        <v>0.02155608751608751</v>
       </c>
       <c r="H2004">
-        <v>0.02116014861751298</v>
+        <v>0.02104201139915425</v>
       </c>
       <c r="I2004">
-        <v>0.6407631292931875</v>
+        <v>0.6340761169332598</v>
       </c>
       <c r="J2004">
-        <v>2.419846372054947</v>
+        <v>2.391983820555249</v>
       </c>
       <c r="K2004">
         <v>4.48</v>
@@ -101828,39 +101426,27 @@
         <v>1</v>
       </c>
       <c r="P2004" t="s">
-        <v>614</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2005" spans="1:16">
       <c r="A2005" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2005" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C2005">
-        <v>0.5714544550459255</v>
-      </c>
-      <c r="D2005" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2005">
-        <v>0.4778667452815295</v>
+        <v>0.6901489244346415</v>
       </c>
       <c r="F2005">
         <v>-1</v>
       </c>
       <c r="G2005">
-        <v>0.02118854554495407</v>
-      </c>
-      <c r="H2005">
-        <v>0.02148213325471847</v>
-      </c>
-      <c r="I2005">
-        <v>0.09358770976439601</v>
+        <v>0.02106985107556536</v>
       </c>
       <c r="J2005">
-        <v>2.419846372054947</v>
+        <v>2.391983820555249</v>
       </c>
       <c r="K2005">
         <v>4.26</v>
@@ -101868,267 +101454,195 @@
       <c r="L2005">
         <v>10.88</v>
       </c>
-      <c r="M2005">
-        <v>4.34</v>
-      </c>
-      <c r="N2005">
-        <v>10.98</v>
-      </c>
-      <c r="O2005">
-        <v>0</v>
-      </c>
       <c r="P2005" t="s">
-        <v>614</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2006" spans="1:16">
       <c r="A2006" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2006" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C2006">
-        <v>0.8075673659959435</v>
-      </c>
-      <c r="D2006" t="s">
-        <v>616</v>
-      </c>
-      <c r="E2006">
-        <v>1.199802512272742</v>
+        <v>0.6501489244346406</v>
       </c>
       <c r="F2006">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2006">
-        <v>0.02199243263400406</v>
-      </c>
-      <c r="H2006">
-        <v>0.02060019748772726</v>
-      </c>
-      <c r="I2006">
-        <v>0.3922351462767981</v>
+        <v>0.02102985107556536</v>
       </c>
       <c r="J2006">
-        <v>2.287782426350768</v>
+        <v>2.391983820555249</v>
       </c>
       <c r="K2006">
-        <v>4.63</v>
+        <v>4.26</v>
       </c>
       <c r="L2006">
-        <v>11.4</v>
-      </c>
-      <c r="M2006">
-        <v>4.24</v>
-      </c>
-      <c r="N2006">
-        <v>10.9</v>
-      </c>
-      <c r="O2006">
-        <v>1</v>
+        <v>10.84</v>
       </c>
       <c r="P2006" t="s">
-        <v>372</v>
+        <v>801</v>
       </c>
     </row>
     <row r="2007" spans="1:16">
       <c r="A2007" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2007" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C2007">
-        <v>0.5907347299485561</v>
+        <v>0.1945553716982218</v>
       </c>
       <c r="D2007" t="s">
-        <v>616</v>
+        <v>360</v>
       </c>
       <c r="E2007">
-        <v>1.199802512272742</v>
+        <v>0.4109505423791049</v>
       </c>
       <c r="F2007">
         <v>1</v>
       </c>
       <c r="G2007">
-        <v>0.02108926527005144</v>
+        <v>0.02236544462830178</v>
       </c>
       <c r="H2007">
-        <v>0.02060019748772726</v>
+        <v>0.0223890494576209</v>
       </c>
       <c r="I2007">
-        <v>0.6090677823241855</v>
+        <v>0.2163951706808831</v>
       </c>
       <c r="J2007">
-        <v>2.287782426350768</v>
+        <v>2.409879267022126</v>
       </c>
       <c r="K2007">
-        <v>4.48</v>
+        <v>4.6</v>
       </c>
       <c r="L2007">
-        <v>10.84</v>
+        <v>11.28</v>
       </c>
       <c r="M2007">
-        <v>4.24</v>
+        <v>4.56</v>
       </c>
       <c r="N2007">
-        <v>10.9</v>
+        <v>11.4</v>
       </c>
       <c r="O2007">
         <v>1</v>
       </c>
       <c r="P2007" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2008" spans="1:16">
       <c r="A2008" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2008" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2008">
-        <v>1.134046863745727</v>
+        <v>0.0437408837408757</v>
       </c>
       <c r="D2008" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E2008">
-        <v>1.051024269637665</v>
+        <v>0.6821119078261866</v>
       </c>
       <c r="F2008">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2008">
-        <v>0.02062595313625427</v>
+        <v>0.02163625911625913</v>
       </c>
       <c r="H2008">
-        <v>0.02090897573036234</v>
+        <v>0.02111788809217382</v>
       </c>
       <c r="I2008">
-        <v>0.08302259410806201</v>
+        <v>0.6383710240853109</v>
       </c>
       <c r="J2008">
-        <v>2.287782426350768</v>
+        <v>2.409879267022126</v>
       </c>
       <c r="K2008">
-        <v>4.26</v>
+        <v>4.48</v>
       </c>
       <c r="L2008">
-        <v>10.88</v>
+        <v>10.84</v>
       </c>
       <c r="M2008">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="N2008">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="O2008">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2008" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2009" spans="1:16">
       <c r="A2009" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2009" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C2009">
-        <v>1.035536769851644</v>
-      </c>
-      <c r="D2009" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2009">
-        <v>0.811318515968761</v>
+        <v>0.613914322485746</v>
       </c>
       <c r="F2009">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2009">
-        <v>0.02176446323014836</v>
-      </c>
-      <c r="H2009">
-        <v>0.02086868148403124</v>
-      </c>
-      <c r="I2009">
-        <v>-0.2242182538828832</v>
+        <v>0.02114608567751426</v>
       </c>
       <c r="J2009">
-        <v>2.238544974114116</v>
+        <v>2.409879267022126</v>
       </c>
       <c r="K2009">
-        <v>4.63</v>
+        <v>4.26</v>
       </c>
       <c r="L2009">
-        <v>11.4</v>
-      </c>
-      <c r="M2009">
-        <v>4.48</v>
-      </c>
-      <c r="N2009">
-        <v>10.84</v>
-      </c>
-      <c r="O2009">
-        <v>1</v>
+        <v>10.88</v>
       </c>
       <c r="P2009" t="s">
-        <v>803</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2010" spans="1:16">
       <c r="A2010" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2010" t="s">
         <v>369</v>
       </c>
       <c r="C2010">
-        <v>1.343798410273868</v>
-      </c>
-      <c r="D2010" t="s">
-        <v>615</v>
-      </c>
-      <c r="E2010">
-        <v>1.264714812344739</v>
+        <v>0.573914322485745</v>
       </c>
       <c r="F2010">
         <v>-1</v>
       </c>
       <c r="G2010">
-        <v>0.02041620158972613</v>
-      </c>
-      <c r="H2010">
-        <v>0.02069528518765526</v>
-      </c>
-      <c r="I2010">
-        <v>0.07908359792912911</v>
+        <v>0.02110608567751426</v>
       </c>
       <c r="J2010">
-        <v>2.238544974114116</v>
+        <v>2.409879267022126</v>
       </c>
       <c r="K2010">
         <v>4.26</v>
       </c>
       <c r="L2010">
-        <v>10.88</v>
-      </c>
-      <c r="M2010">
-        <v>4.34</v>
-      </c>
-      <c r="N2010">
-        <v>10.98</v>
-      </c>
-      <c r="O2010">
-        <v>0</v>
+        <v>10.84</v>
       </c>
       <c r="P2010" t="s">
-        <v>803</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2011" spans="1:16">
@@ -102136,49 +101650,49 @@
         <v>0</v>
       </c>
       <c r="B2011" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2011">
-        <v>1.549549298192899</v>
+        <v>-0.0197326876587649</v>
       </c>
       <c r="D2011" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E2011">
-        <v>1.308678370605655</v>
+        <v>0.19852585745131</v>
       </c>
       <c r="F2011">
         <v>1</v>
       </c>
       <c r="G2011">
-        <v>0.0212504507018071</v>
+        <v>0.02257973268765876</v>
       </c>
       <c r="H2011">
-        <v>0.02037132162939434</v>
+        <v>0.02260147414254869</v>
       </c>
       <c r="I2011">
-        <v>-0.2408709275872436</v>
+        <v>0.2182585451100749</v>
       </c>
       <c r="J2011">
-        <v>2.127527149418381</v>
+        <v>2.456463627751905</v>
       </c>
       <c r="K2011">
-        <v>4.63</v>
+        <v>4.6</v>
       </c>
       <c r="L2011">
+        <v>11.28</v>
+      </c>
+      <c r="M2011">
+        <v>4.56</v>
+      </c>
+      <c r="N2011">
         <v>11.4</v>
       </c>
-      <c r="M2011">
-        <v>4.48</v>
-      </c>
-      <c r="N2011">
-        <v>10.84</v>
-      </c>
       <c r="O2011">
         <v>1</v>
       </c>
       <c r="P2011" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2012" spans="1:16">
@@ -102186,149 +101700,107 @@
         <v>1</v>
       </c>
       <c r="B2012" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C2012">
-        <v>1.8167343434777</v>
+        <v>-0.1649570523285373</v>
       </c>
       <c r="D2012" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E2012">
-        <v>1.74653217152423</v>
+        <v>0.484594218331921</v>
       </c>
       <c r="F2012">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G2012">
-        <v>0.0199432656565223</v>
+        <v>0.02184495705232854</v>
       </c>
       <c r="H2012">
-        <v>0.02021346782847577</v>
+        <v>0.02131540578166808</v>
       </c>
       <c r="I2012">
-        <v>0.07020217195347023</v>
+        <v>0.6495512706604583</v>
       </c>
       <c r="J2012">
-        <v>2.127527149418381</v>
+        <v>2.456463627751905</v>
       </c>
       <c r="K2012">
-        <v>4.26</v>
+        <v>4.48</v>
       </c>
       <c r="L2012">
-        <v>10.88</v>
+        <v>10.84</v>
       </c>
       <c r="M2012">
-        <v>4.34</v>
+        <v>4.24</v>
       </c>
       <c r="N2012">
-        <v>10.98</v>
+        <v>10.9</v>
       </c>
       <c r="O2012">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2012" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2013" spans="1:16">
       <c r="A2013" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2013" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C2013">
-        <v>1.987733647230735</v>
-      </c>
-      <c r="D2013" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2013">
-        <v>1.749193540749159</v>
+        <v>0.4154649457768844</v>
       </c>
       <c r="F2013">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2013">
-        <v>0.02037226635276927</v>
-      </c>
-      <c r="H2013">
-        <v>0.01993080645925084</v>
-      </c>
-      <c r="I2013">
-        <v>-0.238540106481576</v>
+        <v>0.02134453505422312</v>
       </c>
       <c r="J2013">
-        <v>2.029197870368491</v>
+        <v>2.456463627751905</v>
       </c>
       <c r="K2013">
-        <v>4.53</v>
+        <v>4.26</v>
       </c>
       <c r="L2013">
-        <v>11.18</v>
-      </c>
-      <c r="M2013">
-        <v>4.48</v>
-      </c>
-      <c r="N2013">
-        <v>10.84</v>
-      </c>
-      <c r="O2013">
-        <v>1</v>
+        <v>10.88</v>
       </c>
       <c r="P2013" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2014" spans="1:16">
       <c r="A2014" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2014" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C2014">
-        <v>2.520452503404956</v>
-      </c>
-      <c r="D2014" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2014">
-        <v>2.276032497848609</v>
+        <v>0.3754649457768835</v>
       </c>
       <c r="F2014">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2014">
-        <v>0.01983954749659505</v>
-      </c>
-      <c r="H2014">
-        <v>0.01940396750215139</v>
-      </c>
-      <c r="I2014">
-        <v>-0.2444200055563464</v>
+        <v>0.02130453505422312</v>
       </c>
       <c r="J2014">
-        <v>1.911599888873078</v>
+        <v>2.456463627751905</v>
       </c>
       <c r="K2014">
-        <v>4.53</v>
+        <v>4.26</v>
       </c>
       <c r="L2014">
-        <v>11.18</v>
-      </c>
-      <c r="M2014">
-        <v>4.48</v>
-      </c>
-      <c r="N2014">
         <v>10.84</v>
       </c>
-      <c r="O2014">
-        <v>1</v>
-      </c>
       <c r="P2014" t="s">
-        <v>611</v>
+        <v>367</v>
       </c>
     </row>
     <row r="2015" spans="1:16">
@@ -102336,48 +101808,598 @@
         <v>0</v>
       </c>
       <c r="B2015" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2015">
+        <v>0.1487066885472412</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2015">
+        <v>0.3771036159883412</v>
+      </c>
+      <c r="F2015">
+        <v>1</v>
+      </c>
+      <c r="G2015">
+        <v>0.02241129331145276</v>
+      </c>
+      <c r="H2015">
+        <v>0.02254289638401166</v>
+      </c>
+      <c r="I2015">
+        <v>0.2283969274411</v>
+      </c>
+      <c r="J2015">
+        <v>2.419846372054947</v>
+      </c>
+      <c r="K2015">
+        <v>4.6</v>
+      </c>
+      <c r="L2015">
+        <v>11.28</v>
+      </c>
+      <c r="M2015">
+        <v>4.58</v>
+      </c>
+      <c r="N2015">
+        <v>11.46</v>
+      </c>
+      <c r="O2015">
+        <v>1</v>
+      </c>
+      <c r="P2015" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:16">
+      <c r="A2016" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2016">
+        <v>0.1961112973855936</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2016">
+        <v>0.6398513824870218</v>
+      </c>
+      <c r="F2016">
+        <v>1</v>
+      </c>
+      <c r="G2016">
+        <v>0.02260388870261441</v>
+      </c>
+      <c r="H2016">
+        <v>0.02116014861751298</v>
+      </c>
+      <c r="I2016">
+        <v>0.4437400851014281</v>
+      </c>
+      <c r="J2016">
+        <v>2.419846372054947</v>
+      </c>
+      <c r="K2016">
+        <v>4.63</v>
+      </c>
+      <c r="L2016">
+        <v>11.4</v>
+      </c>
+      <c r="M2016">
+        <v>4.24</v>
+      </c>
+      <c r="N2016">
+        <v>10.9</v>
+      </c>
+      <c r="O2016">
+        <v>1</v>
+      </c>
+      <c r="P2016" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:16">
+      <c r="A2017" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2017">
+        <v>-0.0009117468061656808</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>616</v>
+      </c>
+      <c r="E2017">
+        <v>0.6398513824870218</v>
+      </c>
+      <c r="F2017">
+        <v>1</v>
+      </c>
+      <c r="G2017">
+        <v>0.02168091174680617</v>
+      </c>
+      <c r="H2017">
+        <v>0.02116014861751298</v>
+      </c>
+      <c r="I2017">
+        <v>0.6407631292931875</v>
+      </c>
+      <c r="J2017">
+        <v>2.419846372054947</v>
+      </c>
+      <c r="K2017">
+        <v>4.48</v>
+      </c>
+      <c r="L2017">
+        <v>10.84</v>
+      </c>
+      <c r="M2017">
+        <v>4.24</v>
+      </c>
+      <c r="N2017">
+        <v>10.9</v>
+      </c>
+      <c r="O2017">
+        <v>1</v>
+      </c>
+      <c r="P2017" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:16">
+      <c r="A2018" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2018">
+        <v>0.5714544550459255</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2018">
+        <v>0.5314544550459246</v>
+      </c>
+      <c r="F2018">
+        <v>-1</v>
+      </c>
+      <c r="G2018">
+        <v>0.02118854554495407</v>
+      </c>
+      <c r="H2018">
+        <v>0.02114854554495408</v>
+      </c>
+      <c r="I2018">
+        <v>0.04000000000000092</v>
+      </c>
+      <c r="J2018">
+        <v>2.419846372054947</v>
+      </c>
+      <c r="K2018">
+        <v>4.26</v>
+      </c>
+      <c r="L2018">
+        <v>10.88</v>
+      </c>
+      <c r="M2018">
+        <v>4.26</v>
+      </c>
+      <c r="N2018">
+        <v>10.84</v>
+      </c>
+      <c r="O2018">
+        <v>0</v>
+      </c>
+      <c r="P2018" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:16">
+      <c r="A2019" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2019">
+        <v>0.8075673659959435</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2019">
+        <v>0.5907347299485561</v>
+      </c>
+      <c r="F2019">
+        <v>1</v>
+      </c>
+      <c r="G2019">
+        <v>0.02199243263400406</v>
+      </c>
+      <c r="H2019">
+        <v>0.02108926527005144</v>
+      </c>
+      <c r="I2019">
+        <v>-0.2168326360473873</v>
+      </c>
+      <c r="J2019">
+        <v>2.287782426350768</v>
+      </c>
+      <c r="K2019">
+        <v>4.63</v>
+      </c>
+      <c r="L2019">
+        <v>11.4</v>
+      </c>
+      <c r="M2019">
+        <v>4.48</v>
+      </c>
+      <c r="N2019">
+        <v>10.84</v>
+      </c>
+      <c r="O2019">
+        <v>1</v>
+      </c>
+      <c r="P2019" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:16">
+      <c r="A2020" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2020">
+        <v>1.134046863745727</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2020">
+        <v>1.094046863745726</v>
+      </c>
+      <c r="F2020">
+        <v>-1</v>
+      </c>
+      <c r="G2020">
+        <v>0.02062595313625427</v>
+      </c>
+      <c r="H2020">
+        <v>0.02058595313625428</v>
+      </c>
+      <c r="I2020">
+        <v>0.04000000000000092</v>
+      </c>
+      <c r="J2020">
+        <v>2.287782426350768</v>
+      </c>
+      <c r="K2020">
+        <v>4.26</v>
+      </c>
+      <c r="L2020">
+        <v>10.88</v>
+      </c>
+      <c r="M2020">
+        <v>4.26</v>
+      </c>
+      <c r="N2020">
+        <v>10.84</v>
+      </c>
+      <c r="O2020">
+        <v>0</v>
+      </c>
+      <c r="P2020" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:16">
+      <c r="A2021" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2021">
+        <v>1.035536769851644</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2021">
+        <v>0.811318515968761</v>
+      </c>
+      <c r="F2021">
+        <v>1</v>
+      </c>
+      <c r="G2021">
+        <v>0.02176446323014836</v>
+      </c>
+      <c r="H2021">
+        <v>0.02086868148403124</v>
+      </c>
+      <c r="I2021">
+        <v>-0.2242182538828832</v>
+      </c>
+      <c r="J2021">
+        <v>2.238544974114116</v>
+      </c>
+      <c r="K2021">
+        <v>4.63</v>
+      </c>
+      <c r="L2021">
+        <v>11.4</v>
+      </c>
+      <c r="M2021">
+        <v>4.48</v>
+      </c>
+      <c r="N2021">
+        <v>10.84</v>
+      </c>
+      <c r="O2021">
+        <v>1</v>
+      </c>
+      <c r="P2021" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:16">
+      <c r="A2022" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2022">
+        <v>1.343798410273868</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2022">
+        <v>1.303798410273867</v>
+      </c>
+      <c r="F2022">
+        <v>-1</v>
+      </c>
+      <c r="G2022">
+        <v>0.02041620158972613</v>
+      </c>
+      <c r="H2022">
+        <v>0.02037620158972613</v>
+      </c>
+      <c r="I2022">
+        <v>0.04000000000000092</v>
+      </c>
+      <c r="J2022">
+        <v>2.238544974114116</v>
+      </c>
+      <c r="K2022">
+        <v>4.26</v>
+      </c>
+      <c r="L2022">
+        <v>10.88</v>
+      </c>
+      <c r="M2022">
+        <v>4.26</v>
+      </c>
+      <c r="N2022">
+        <v>10.84</v>
+      </c>
+      <c r="O2022">
+        <v>0</v>
+      </c>
+      <c r="P2022" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:16">
+      <c r="A2023" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2023">
+        <v>1.549549298192899</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2023">
+        <v>1.308678370605655</v>
+      </c>
+      <c r="F2023">
+        <v>1</v>
+      </c>
+      <c r="G2023">
+        <v>0.0212504507018071</v>
+      </c>
+      <c r="H2023">
+        <v>0.02037132162939434</v>
+      </c>
+      <c r="I2023">
+        <v>-0.2408709275872436</v>
+      </c>
+      <c r="J2023">
+        <v>2.127527149418381</v>
+      </c>
+      <c r="K2023">
+        <v>4.63</v>
+      </c>
+      <c r="L2023">
+        <v>11.4</v>
+      </c>
+      <c r="M2023">
+        <v>4.48</v>
+      </c>
+      <c r="N2023">
+        <v>10.84</v>
+      </c>
+      <c r="O2023">
+        <v>1</v>
+      </c>
+      <c r="P2023" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:16">
+      <c r="A2024" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2024">
+        <v>2.004813860193888</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2024">
+        <v>1.749193540749159</v>
+      </c>
+      <c r="F2024">
+        <v>1</v>
+      </c>
+      <c r="G2024">
+        <v>0.02079518613980611</v>
+      </c>
+      <c r="H2024">
+        <v>0.01993080645925084</v>
+      </c>
+      <c r="I2024">
+        <v>-0.2556203194447288</v>
+      </c>
+      <c r="J2024">
+        <v>2.029197870368491</v>
+      </c>
+      <c r="K2024">
+        <v>4.63</v>
+      </c>
+      <c r="L2024">
+        <v>11.4</v>
+      </c>
+      <c r="M2024">
+        <v>4.48</v>
+      </c>
+      <c r="N2024">
+        <v>10.84</v>
+      </c>
+      <c r="O2024">
+        <v>1</v>
+      </c>
+      <c r="P2024" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:16">
+      <c r="A2025" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>374</v>
+      </c>
+      <c r="C2025">
+        <v>2.520452503404956</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2025">
+        <v>2.276032497848609</v>
+      </c>
+      <c r="F2025">
+        <v>1</v>
+      </c>
+      <c r="G2025">
+        <v>0.01983954749659505</v>
+      </c>
+      <c r="H2025">
+        <v>0.01940396750215139</v>
+      </c>
+      <c r="I2025">
+        <v>-0.2444200055563464</v>
+      </c>
+      <c r="J2025">
+        <v>1.911599888873078</v>
+      </c>
+      <c r="K2025">
+        <v>4.53</v>
+      </c>
+      <c r="L2025">
+        <v>11.18</v>
+      </c>
+      <c r="M2025">
+        <v>4.48</v>
+      </c>
+      <c r="N2025">
+        <v>10.84</v>
+      </c>
+      <c r="O2025">
+        <v>1</v>
+      </c>
+      <c r="P2025" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:16">
+      <c r="A2026" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2026" t="s">
         <v>375</v>
       </c>
-      <c r="C2015">
+      <c r="C2026">
         <v>3.053603111101056</v>
       </c>
-      <c r="D2015" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2015">
+      <c r="D2026" t="s">
+        <v>365</v>
+      </c>
+      <c r="E2026">
         <v>3.155537225047927</v>
       </c>
-      <c r="F2015">
-        <v>1</v>
-      </c>
-      <c r="G2015">
+      <c r="F2026">
+        <v>1</v>
+      </c>
+      <c r="G2026">
         <v>0.01862639688889894</v>
       </c>
-      <c r="H2015">
+      <c r="H2026">
         <v>0.01876446277495208</v>
       </c>
-      <c r="I2015">
+      <c r="I2026">
         <v>0.1019341139468706</v>
       </c>
-      <c r="J2015">
+      <c r="J2026">
         <v>1.80658860531298</v>
       </c>
-      <c r="K2015">
+      <c r="K2026">
         <v>4.31</v>
       </c>
-      <c r="L2015">
+      <c r="L2026">
         <v>10.84</v>
       </c>
-      <c r="M2015">
+      <c r="M2026">
         <v>4.32</v>
       </c>
-      <c r="N2015">
+      <c r="N2026">
         <v>10.96</v>
       </c>
-      <c r="O2015">
-        <v>1</v>
-      </c>
-      <c r="P2015" t="s">
+      <c r="O2026">
+        <v>1</v>
+      </c>
+      <c r="P2026" t="s">
         <v>616</v>
       </c>
     </row>
